--- a/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
+++ b/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>DANH SÁCH NHÂN VIÊN</t>
   </si>
@@ -44,36 +44,60 @@
     <t>Tên ngân hàng</t>
   </si>
   <si>
+    <t>NV-9977</t>
+  </si>
+  <si>
+    <t>Lê Quý Nhật sửa lần thứ ba</t>
+  </si>
+  <si>
+    <t>Không xác định</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thực tập sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phòng kỹ thuật </t>
+  </si>
+  <si>
+    <t>8709971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACB Bank</t>
+  </si>
+  <si>
+    <t>NV-9974</t>
+  </si>
+  <si>
+    <t>Lê Quý Nhật</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>0123456</t>
+  </si>
+  <si>
+    <t>ACB Bank</t>
+  </si>
+  <si>
     <t>NV-0811</t>
   </si>
   <si>
-    <t>Lê Quý Nhật</t>
-  </si>
-  <si>
-    <t>Không xác định</t>
-  </si>
-  <si>
-    <t>27/08/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thực tập sinh</t>
+    <t>Lê Quý Nhật sửa lần thứ nhất</t>
+  </si>
+  <si>
+    <t>NV-1999</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Hường</t>
   </si>
   <si>
     <t xml:space="preserve"> Phòng giám đốc </t>
   </si>
   <si>
-    <t>8709971</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ACB Bank</t>
-  </si>
-  <si>
-    <t>NV-1999</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Hường</t>
-  </si>
-  <si>
     <t>NV-1305</t>
   </si>
   <si>
@@ -108,9 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trịnh Tuấn Thái </t>
-  </si>
-  <si>
-    <t>Nam</t>
   </si>
   <si>
     <t>8102092</t>
@@ -153,9 +174,6 @@
     <t xml:space="preserve">Hoàng Ngọc Ngọc </t>
   </si>
   <si>
-    <t xml:space="preserve"> Phòng kỹ thuật </t>
-  </si>
-  <si>
     <t>7097498</t>
   </si>
   <si>
@@ -396,18 +414,18 @@
     <t>4254212</t>
   </si>
   <si>
+    <t>NV-1991</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Đạt</t>
+  </si>
+  <si>
     <t>NV-1221</t>
   </si>
   <si>
     <t>Trần Thị Huyền Trang</t>
   </si>
   <si>
-    <t>NV-1991</t>
-  </si>
-  <si>
-    <t>Nguyễn Mạnh Đạt</t>
-  </si>
-  <si>
     <t>NV-6091</t>
   </si>
   <si>
@@ -510,31 +528,40 @@
     <t>0938660</t>
   </si>
   <si>
+    <t>NV-6922</t>
+  </si>
+  <si>
+    <t>Trịnh Ngọc Diễm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5041995</t>
+  </si>
+  <si>
+    <t>NV-5215</t>
+  </si>
+  <si>
+    <t>3472254</t>
+  </si>
+  <si>
     <t>NV-4963</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Ngọc Trường </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0668634</t>
   </si>
   <si>
-    <t>NV-5215</t>
-  </si>
-  <si>
-    <t>3472254</t>
-  </si>
-  <si>
-    <t>NV-6922</t>
-  </si>
-  <si>
-    <t>Trịnh Ngọc Diễm</t>
-  </si>
-  <si>
-    <t>5041995</t>
+    <t>NV-6148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trân Tuấn Trường </t>
+  </si>
+  <si>
+    <t>0595747</t>
   </si>
   <si>
     <t>NV-1384</t>
@@ -544,15 +571,6 @@
   </si>
   <si>
     <t>7288106</t>
-  </si>
-  <si>
-    <t>NV-6148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trân Tuấn Trường </t>
-  </si>
-  <si>
-    <t>0595747</t>
   </si>
   <si>
     <t>NV-4057</t>
@@ -647,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -655,9 +673,9 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="13.777589797973633" customWidth="1"/>
-    <col min="3" max="3" width="21.00848960876465" customWidth="1"/>
+    <col min="3" max="3" width="27.00263023376465" customWidth="1"/>
     <col min="4" max="4" width="15.198502540588379" customWidth="1"/>
-    <col min="5" max="5" width="11.2464017868042" customWidth="1"/>
+    <col min="5" max="5" width="10.72513484954834" customWidth="1"/>
     <col min="6" max="6" width="14.393349647521973" customWidth="1"/>
     <col min="7" max="7" width="16.99909782409668" customWidth="1"/>
     <col min="8" max="8" width="13.014010429382324" customWidth="1"/>
@@ -735,20 +753,20 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="5">
+        <v>36664</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1">
@@ -756,28 +774,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
+      <c r="E5" s="5">
+        <v>36472</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
@@ -785,28 +803,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="5">
+        <v>36664</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
@@ -814,28 +832,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="5">
+        <v>36664</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1">
@@ -843,28 +861,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>21779</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
@@ -880,20 +898,20 @@
       <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
+      <c r="E9" s="5">
+        <v>20467</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1">
@@ -907,22 +925,22 @@
         <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5">
+        <v>28793</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1">
@@ -930,28 +948,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>28179</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1">
@@ -959,28 +977,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5">
+        <v>23069</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1">
@@ -988,28 +1006,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5">
+        <v>27220</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1">
@@ -1017,28 +1035,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5">
+        <v>36809</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1">
@@ -1046,28 +1064,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5">
+        <v>24431</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1">
@@ -1075,28 +1093,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
+      <c r="E16" s="5">
+        <v>24427</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1">
@@ -1110,22 +1128,22 @@
         <v>68</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E17" s="5">
+        <v>21882</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1">
@@ -1141,20 +1159,20 @@
       <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
+      <c r="E18" s="5">
+        <v>25479</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>72</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1">
@@ -1168,22 +1186,22 @@
         <v>74</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E19" s="5">
+        <v>29639</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>75</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1">
@@ -1197,22 +1215,22 @@
         <v>77</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <v>21070</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>78</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1">
@@ -1226,22 +1244,22 @@
         <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E21" s="5">
+        <v>35488</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1">
@@ -1255,22 +1273,22 @@
         <v>83</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5">
+        <v>22346</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>84</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1">
@@ -1284,22 +1302,22 @@
         <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E23" s="5">
+        <v>28871</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>87</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1">
@@ -1313,22 +1331,22 @@
         <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="E24" s="5">
+        <v>36448</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1">
@@ -1342,22 +1360,22 @@
         <v>92</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>35961</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>93</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1">
@@ -1371,22 +1389,22 @@
         <v>95</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <v>24362</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>96</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1">
@@ -1400,22 +1418,22 @@
         <v>98</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="5">
+        <v>20826</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>99</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1">
@@ -1429,22 +1447,22 @@
         <v>101</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E28" s="5">
+        <v>28796</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>102</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1">
@@ -1458,22 +1476,22 @@
         <v>104</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="E29" s="5">
+        <v>34005</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>105</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1">
@@ -1487,22 +1505,22 @@
         <v>107</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="5">
+        <v>24441</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>108</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1">
@@ -1516,22 +1534,22 @@
         <v>110</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="5">
+        <v>26365</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1">
@@ -1545,22 +1563,22 @@
         <v>113</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="E32" s="5">
+        <v>33356</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>114</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1">
@@ -1574,22 +1592,22 @@
         <v>116</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E33" s="5">
+        <v>20190</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>117</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1">
@@ -1603,22 +1621,22 @@
         <v>119</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E34" s="5">
+        <v>32696</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>120</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1">
@@ -1632,22 +1650,22 @@
         <v>122</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E35" s="5">
+        <v>32465</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>123</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1">
@@ -1661,22 +1679,22 @@
         <v>125</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="5">
+        <v>33150</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G36" s="6" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1">
@@ -1690,22 +1708,22 @@
         <v>128</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="E37" s="5">
+        <v>36788</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1">
@@ -1713,28 +1731,28 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E38" s="5">
+        <v>31273</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H38" s="6" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1">
@@ -1742,28 +1760,28 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="5">
+        <v>36664</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G39" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1">
@@ -1771,28 +1789,28 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="5">
+        <v>36664</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1">
@@ -1800,28 +1818,28 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="5">
+        <v>26205</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G41" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1">
@@ -1829,28 +1847,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E42" s="5">
+        <v>23701</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>141</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
@@ -1861,25 +1879,25 @@
         <v>142</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E43" s="5">
+        <v>29454</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1">
@@ -1887,28 +1905,28 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="5">
+        <v>30481</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="G44" s="6" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1">
@@ -1916,28 +1934,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="E45" s="5">
+        <v>23391</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>149</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
@@ -1951,22 +1969,22 @@
         <v>151</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="E46" s="5">
+        <v>22260</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>152</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1">
@@ -1980,22 +1998,22 @@
         <v>154</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="E47" s="5">
+        <v>19525</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>155</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1">
@@ -2009,22 +2027,22 @@
         <v>157</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="5">
+        <v>19496</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G48" s="6" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>158</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1">
@@ -2038,22 +2056,22 @@
         <v>160</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E49" s="5">
+        <v>18690</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>161</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1">
@@ -2067,22 +2085,22 @@
         <v>163</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="E50" s="5">
+        <v>18640</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>164</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1">
@@ -2096,44 +2114,52 @@
         <v>166</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="5">
+        <v>18635</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" s="3" customFormat="1">
       <c r="A52" s="5">
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E52" s="5">
+        <v>18635</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="G52" s="6" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="53" s="3" customFormat="1">
       <c r="A53" s="5">
@@ -2146,17 +2172,15 @@
         <v>172</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I53" s="6"/>
     </row>
@@ -2165,20 +2189,18 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E54" s="5"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>176</v>
@@ -2196,14 +2218,12 @@
         <v>178</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E55" s="5"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>179</v>
@@ -2221,19 +2241,63 @@
         <v>181</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E56" s="5"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>182</v>
       </c>
       <c r="I56" s="6"/>
+    </row>
+    <row r="57" s="3" customFormat="1">
+      <c r="A57" s="5">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" s="3" customFormat="1">
+      <c r="A58" s="5">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I58" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
+++ b/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>DANH SÁCH NHÂN VIÊN</t>
   </si>
@@ -44,25 +44,34 @@
     <t>Tên ngân hàng</t>
   </si>
   <si>
+    <t>NV-9978</t>
+  </si>
+  <si>
+    <t>Lê Quý Nhật sửa 1</t>
+  </si>
+  <si>
+    <t>Không xác định</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thực tập sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phòng kế toán </t>
+  </si>
+  <si>
+    <t>8709971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACB Bank</t>
+  </si>
+  <si>
     <t>NV-9977</t>
   </si>
   <si>
     <t>Lê Quý Nhật sửa lần thứ ba</t>
   </si>
   <si>
-    <t>Không xác định</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thực tập sinh</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phòng kỹ thuật </t>
-  </si>
-  <si>
-    <t>8709971</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ACB Bank</t>
   </si>
   <si>
     <t>NV-9974</t>
@@ -195,9 +204,6 @@
     <t xml:space="preserve">Nguyễn Thái Trường </t>
   </si>
   <si>
-    <t xml:space="preserve"> Phòng kế toán </t>
-  </si>
-  <si>
     <t>8823251</t>
   </si>
   <si>
@@ -528,22 +534,49 @@
     <t>0938660</t>
   </si>
   <si>
+    <t>NV-5215</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3472254</t>
+  </si>
+  <si>
     <t>NV-6922</t>
   </si>
   <si>
     <t>Trịnh Ngọc Diễm</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>5041995</t>
   </si>
   <si>
-    <t>NV-5215</t>
-  </si>
-  <si>
-    <t>3472254</t>
+    <t>NV-1384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
+  </si>
+  <si>
+    <t>7288106</t>
+  </si>
+  <si>
+    <t>NV-4057</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hân</t>
+  </si>
+  <si>
+    <t>0622264</t>
+  </si>
+  <si>
+    <t>NV-6148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trân Tuấn Trường </t>
+  </si>
+  <si>
+    <t>0595747</t>
   </si>
   <si>
     <t>NV-4963</t>
@@ -553,33 +586,6 @@
   </si>
   <si>
     <t>0668634</t>
-  </si>
-  <si>
-    <t>NV-6148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trân Tuấn Trường </t>
-  </si>
-  <si>
-    <t>0595747</t>
-  </si>
-  <si>
-    <t>NV-1384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
-  </si>
-  <si>
-    <t>7288106</t>
-  </si>
-  <si>
-    <t>NV-4057</t>
-  </si>
-  <si>
-    <t>Bùi Thị Hân</t>
-  </si>
-  <si>
-    <t>0622264</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -780,22 +786,22 @@
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>36664</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5">
-        <v>36472</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
@@ -803,28 +809,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5">
+        <v>36472</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>36664</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
@@ -832,10 +838,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
@@ -847,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>15</v>
@@ -870,19 +876,19 @@
         <v>12</v>
       </c>
       <c r="E8" s="5">
-        <v>21779</v>
+        <v>36664</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
@@ -890,28 +896,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5">
-        <v>20467</v>
+        <v>21779</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1">
@@ -919,22 +925,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20467</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5">
-        <v>28793</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>40</v>
@@ -954,22 +960,22 @@
         <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5">
-        <v>28179</v>
+        <v>28793</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1">
@@ -977,28 +983,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>28179</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5">
-        <v>23069</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1">
@@ -1006,28 +1012,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23069</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="5">
-        <v>27220</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1">
@@ -1035,28 +1041,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>27220</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5">
-        <v>36809</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1">
@@ -1070,22 +1076,22 @@
         <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5">
-        <v>24431</v>
+        <v>36809</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1">
@@ -1093,28 +1099,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5">
+        <v>24431</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5">
-        <v>24427</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1">
@@ -1122,28 +1128,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>24427</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5">
-        <v>21882</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="I17" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1">
@@ -1151,28 +1157,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5">
+        <v>21882</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5">
-        <v>25479</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1">
@@ -1180,28 +1186,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>25479</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="5">
-        <v>29639</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1">
@@ -1209,28 +1215,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5">
+        <v>29639</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5">
-        <v>21070</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1">
@@ -1238,28 +1244,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>21070</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="5">
-        <v>35488</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1">
@@ -1267,28 +1273,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5">
+        <v>35488</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="5">
-        <v>22346</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="I22" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1">
@@ -1296,28 +1302,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="5">
+        <v>22346</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5">
-        <v>28871</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="I23" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1">
@@ -1325,28 +1331,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5">
+        <v>28871</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="5">
-        <v>36448</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="I24" s="6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1">
@@ -1354,28 +1360,28 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E25" s="5">
-        <v>35961</v>
+        <v>36448</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1">
@@ -1383,28 +1389,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5">
-        <v>24362</v>
+        <v>35961</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1">
@@ -1412,28 +1418,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5">
+        <v>24362</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="5">
-        <v>20826</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="I27" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1">
@@ -1441,28 +1447,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5">
+        <v>20826</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="5">
-        <v>28796</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="I28" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1">
@@ -1470,28 +1476,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="5">
+        <v>28796</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="5">
-        <v>34005</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="I29" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1">
@@ -1499,28 +1505,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5">
+        <v>34005</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5">
-        <v>24441</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="I30" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1">
@@ -1528,28 +1534,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5">
+        <v>24441</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="5">
-        <v>26365</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="I31" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1">
@@ -1557,28 +1563,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="5">
+        <v>26365</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="5">
-        <v>33356</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="I32" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1">
@@ -1586,28 +1592,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="5">
+        <v>33356</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="5">
-        <v>20190</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="I33" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1">
@@ -1615,28 +1621,28 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="5">
+        <v>20190</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="5">
-        <v>32696</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="I34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1">
@@ -1644,28 +1650,28 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="5">
+        <v>32696</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="5">
-        <v>32465</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="I35" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1">
@@ -1673,28 +1679,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E36" s="5">
-        <v>33150</v>
+        <v>32465</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1">
@@ -1702,28 +1708,28 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="5">
+        <v>33150</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="5">
-        <v>36788</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="I37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1">
@@ -1731,28 +1737,28 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="5">
+        <v>36788</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="5">
-        <v>31273</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="I38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1">
@@ -1760,28 +1766,28 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="5">
+        <v>31273</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5">
-        <v>36664</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I39" s="6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1">
@@ -1804,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>15</v>
@@ -1827,19 +1833,19 @@
         <v>12</v>
       </c>
       <c r="E41" s="5">
-        <v>26205</v>
+        <v>36664</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1">
@@ -1847,28 +1853,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E42" s="5">
-        <v>23701</v>
+        <v>26205</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>141</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
@@ -1879,25 +1885,25 @@
         <v>142</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="5">
+        <v>23701</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="5">
-        <v>29454</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1">
@@ -1905,28 +1911,28 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="5">
+        <v>29454</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="5">
-        <v>30481</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="I44" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1">
@@ -1934,28 +1940,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E45" s="5">
-        <v>23391</v>
+        <v>30481</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>149</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
@@ -1966,25 +1972,25 @@
         <v>150</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="5">
+        <v>23391</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="5">
-        <v>22260</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="I46" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1">
@@ -1992,28 +1998,28 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="5">
+        <v>22260</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="5">
-        <v>19525</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="I47" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1">
@@ -2021,28 +2027,28 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="5">
+        <v>19525</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="5">
-        <v>19496</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="I48" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1">
@@ -2050,28 +2056,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E49" s="5">
-        <v>18690</v>
+        <v>19496</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1">
@@ -2079,28 +2085,28 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="5">
+        <v>18690</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="5">
-        <v>18640</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="I50" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1">
@@ -2108,28 +2114,28 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="5">
+        <v>18640</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="5">
-        <v>18635</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="I51" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1">
@@ -2137,28 +2143,28 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E52" s="5">
         <v>18635</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1">
@@ -2166,44 +2172,50 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E53" s="5">
+        <v>18635</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I53" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="54" s="3" customFormat="1">
       <c r="A54" s="5">
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I54" s="6"/>
     </row>
@@ -2212,21 +2224,21 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -2235,21 +2247,21 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I56" s="6"/>
     </row>
@@ -2258,21 +2270,21 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="D57" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -2281,23 +2293,46 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H58" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" s="3" customFormat="1">
+      <c r="A59" s="5">
+        <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I58" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I59" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
+++ b/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>DANH SÁCH NHÂN VIÊN</t>
   </si>
@@ -53,10 +53,13 @@
     <t>Không xác định</t>
   </si>
   <si>
+    <t>18/05/2000</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Thực tập sinh</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phòng kế toán </t>
+    <t xml:space="preserve"> Phòng giám đốc </t>
   </si>
   <si>
     <t>8709971</t>
@@ -83,6 +86,9 @@
     <t>Nam</t>
   </si>
   <si>
+    <t>08/11/1999</t>
+  </si>
+  <si>
     <t>Nhân viên</t>
   </si>
   <si>
@@ -104,15 +110,15 @@
     <t>Trịnh Thị Hường</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phòng giám đốc </t>
-  </si>
-  <si>
     <t>NV-1305</t>
   </si>
   <si>
     <t xml:space="preserve">Trân Việt Anh </t>
   </si>
   <si>
+    <t>17/08/1959</t>
+  </si>
+  <si>
     <t xml:space="preserve">Giám đốc </t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t xml:space="preserve">Nông Thái Hoàng </t>
   </si>
   <si>
+    <t>13/01/1956</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Trưởng phòng </t>
   </si>
   <si>
@@ -143,6 +152,9 @@
     <t xml:space="preserve">Trịnh Tuấn Thái </t>
   </si>
   <si>
+    <t>30/10/1978</t>
+  </si>
+  <si>
     <t>8102092</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
     <t xml:space="preserve">Trân Việt Ngọc </t>
   </si>
   <si>
+    <t>23/02/1977</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Phó giám đốc </t>
   </si>
   <si>
@@ -165,6 +180,9 @@
   </si>
   <si>
     <t>Nữ</t>
+  </si>
+  <si>
+    <t>27/02/1963</t>
   </si>
   <si>
     <t xml:space="preserve"> Phòng nhân sự_x000D_
@@ -183,6 +201,9 @@
     <t xml:space="preserve">Hoàng Ngọc Ngọc </t>
   </si>
   <si>
+    <t>10/07/1974</t>
+  </si>
+  <si>
     <t>7097498</t>
   </si>
   <si>
@@ -195,6 +216,9 @@
     <t>Mai Thị Ngọc</t>
   </si>
   <si>
+    <t>10/10/2000</t>
+  </si>
+  <si>
     <t>6214051</t>
   </si>
   <si>
@@ -204,6 +228,12 @@
     <t xml:space="preserve">Nguyễn Thái Trường </t>
   </si>
   <si>
+    <t>20/11/1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phòng kế toán </t>
+  </si>
+  <si>
     <t>8823251</t>
   </si>
   <si>
@@ -216,6 +246,9 @@
     <t>Hoàng Diễm Giang</t>
   </si>
   <si>
+    <t>16/11/1966</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Nhân viên </t>
   </si>
   <si>
@@ -228,6 +261,9 @@
     <t>Nguyễn Mai Giang</t>
   </si>
   <si>
+    <t>28/11/1959</t>
+  </si>
+  <si>
     <t>7242668</t>
   </si>
   <si>
@@ -237,6 +273,9 @@
     <t>Nguyễn Thị Diễm</t>
   </si>
   <si>
+    <t>03/10/1969</t>
+  </si>
+  <si>
     <t>4920401</t>
   </si>
   <si>
@@ -246,6 +285,9 @@
     <t>Trịnh Thị Giang</t>
   </si>
   <si>
+    <t>22/02/1981</t>
+  </si>
+  <si>
     <t>8507653</t>
   </si>
   <si>
@@ -255,6 +297,9 @@
     <t xml:space="preserve">Bùi Văn Mạnh </t>
   </si>
   <si>
+    <t>07/09/1957</t>
+  </si>
+  <si>
     <t>2582214</t>
   </si>
   <si>
@@ -264,6 +309,9 @@
     <t xml:space="preserve">Nguyễn Ngọc Tuấn </t>
   </si>
   <si>
+    <t>27/02/1997</t>
+  </si>
+  <si>
     <t>7728258</t>
   </si>
   <si>
@@ -273,6 +321,9 @@
     <t>Nguyễn Thị Hương</t>
   </si>
   <si>
+    <t>06/03/1961</t>
+  </si>
+  <si>
     <t>7627093</t>
   </si>
   <si>
@@ -282,6 +333,9 @@
     <t xml:space="preserve">Nguyễn Ngọc Hương </t>
   </si>
   <si>
+    <t>16/01/1979</t>
+  </si>
+  <si>
     <t>3117077</t>
   </si>
   <si>
@@ -291,6 +345,9 @@
     <t xml:space="preserve">Nguyễn Việt Bằng </t>
   </si>
   <si>
+    <t>15/10/1999</t>
+  </si>
+  <si>
     <t>6137355</t>
   </si>
   <si>
@@ -300,6 +357,9 @@
     <t xml:space="preserve">Mai Văn Trường </t>
   </si>
   <si>
+    <t>15/06/1998</t>
+  </si>
+  <si>
     <t>3494265</t>
   </si>
   <si>
@@ -309,6 +369,9 @@
     <t xml:space="preserve">Nguyễn Minh Minh </t>
   </si>
   <si>
+    <t>12/09/1966</t>
+  </si>
+  <si>
     <t>4621363</t>
   </si>
   <si>
@@ -318,6 +381,9 @@
     <t xml:space="preserve">Nguyễn Việt Trường </t>
   </si>
   <si>
+    <t>06/01/1957</t>
+  </si>
+  <si>
     <t>6583075</t>
   </si>
   <si>
@@ -327,6 +393,9 @@
     <t xml:space="preserve">Nguyễn Thái Mạnh </t>
   </si>
   <si>
+    <t>02/11/1978</t>
+  </si>
+  <si>
     <t>0041172</t>
   </si>
   <si>
@@ -336,6 +405,9 @@
     <t xml:space="preserve">Nguyễn Văn Bằng </t>
   </si>
   <si>
+    <t>05/02/1993</t>
+  </si>
+  <si>
     <t>2014134</t>
   </si>
   <si>
@@ -345,6 +417,9 @@
     <t xml:space="preserve">Nguyễn Minh Bằng </t>
   </si>
   <si>
+    <t>30/11/1966</t>
+  </si>
+  <si>
     <t>3466263</t>
   </si>
   <si>
@@ -354,6 +429,9 @@
     <t>Bùi Thị Hoa</t>
   </si>
   <si>
+    <t>07/03/1972</t>
+  </si>
+  <si>
     <t>9967855</t>
   </si>
   <si>
@@ -363,6 +441,9 @@
     <t>Nguyễn Ngọc Ly</t>
   </si>
   <si>
+    <t>28/04/1991</t>
+  </si>
+  <si>
     <t>2383127</t>
   </si>
   <si>
@@ -372,6 +453,9 @@
     <t xml:space="preserve">Nguyễn Việt Tuấn </t>
   </si>
   <si>
+    <t>11/04/1955</t>
+  </si>
+  <si>
     <t>1941437</t>
   </si>
   <si>
@@ -381,6 +465,9 @@
     <t>Võ Mai Giang</t>
   </si>
   <si>
+    <t>07/07/1989</t>
+  </si>
+  <si>
     <t>9570405</t>
   </si>
   <si>
@@ -390,6 +477,9 @@
     <t xml:space="preserve">Nguyễn Tuấn Thành </t>
   </si>
   <si>
+    <t>18/11/1988</t>
+  </si>
+  <si>
     <t>0303084</t>
   </si>
   <si>
@@ -399,6 +489,9 @@
     <t xml:space="preserve">Nguyễn Văn Cường </t>
   </si>
   <si>
+    <t>04/10/1990</t>
+  </si>
+  <si>
     <t>0723557</t>
   </si>
   <si>
@@ -408,6 +501,9 @@
     <t xml:space="preserve">Trịnh Việt Bằng </t>
   </si>
   <si>
+    <t>19/09/2000</t>
+  </si>
+  <si>
     <t>8750103</t>
   </si>
   <si>
@@ -417,33 +513,42 @@
     <t xml:space="preserve">Võ Minh Tuấn </t>
   </si>
   <si>
+    <t>14/08/1985</t>
+  </si>
+  <si>
     <t>4254212</t>
   </si>
   <si>
+    <t>NV-1221</t>
+  </si>
+  <si>
+    <t>Trần Thị Huyền Trang</t>
+  </si>
+  <si>
     <t>NV-1991</t>
   </si>
   <si>
     <t>Nguyễn Mạnh Đạt</t>
   </si>
   <si>
-    <t>NV-1221</t>
-  </si>
-  <si>
-    <t>Trần Thị Huyền Trang</t>
-  </si>
-  <si>
     <t>NV-6091</t>
   </si>
   <si>
     <t>Trịnh Ngọc Giang</t>
   </si>
   <si>
+    <t>29/09/1971</t>
+  </si>
+  <si>
     <t>8770683</t>
   </si>
   <si>
     <t>NV-8798</t>
   </si>
   <si>
+    <t>20/11/1964</t>
+  </si>
+  <si>
     <t>0925498</t>
   </si>
   <si>
@@ -453,6 +558,9 @@
     <t>Mai Mai Lệ</t>
   </si>
   <si>
+    <t>21/08/1980</t>
+  </si>
+  <si>
     <t>4179842</t>
   </si>
   <si>
@@ -462,12 +570,18 @@
     <t>Nguyễn Ngọc Hân</t>
   </si>
   <si>
+    <t>14/06/1983</t>
+  </si>
+  <si>
     <t>6640815</t>
   </si>
   <si>
     <t>NV-3386</t>
   </si>
   <si>
+    <t>15/01/1964</t>
+  </si>
+  <si>
     <t>6120733</t>
   </si>
   <si>
@@ -477,6 +591,9 @@
     <t>Nguyễn Mai Hân</t>
   </si>
   <si>
+    <t>10/12/1960</t>
+  </si>
+  <si>
     <t>5876963</t>
   </si>
   <si>
@@ -486,6 +603,9 @@
     <t xml:space="preserve">Nguyễn Tuấn Trường </t>
   </si>
   <si>
+    <t>15/06/1953</t>
+  </si>
+  <si>
     <t>1762013</t>
   </si>
   <si>
@@ -495,6 +615,9 @@
     <t xml:space="preserve">Nguyễn Thái Tuấn </t>
   </si>
   <si>
+    <t>17/05/1953</t>
+  </si>
+  <si>
     <t>4373917</t>
   </si>
   <si>
@@ -504,6 +627,9 @@
     <t xml:space="preserve">Hoàng Văn Cường </t>
   </si>
   <si>
+    <t>03/03/1951</t>
+  </si>
+  <si>
     <t>7173817</t>
   </si>
   <si>
@@ -513,9 +639,24 @@
     <t>Nguyễn Thị Ly</t>
   </si>
   <si>
+    <t>12/01/1951</t>
+  </si>
+  <si>
     <t>1115156</t>
   </si>
   <si>
+    <t>NV-9114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Tuấn </t>
+  </si>
+  <si>
+    <t>07/01/1951</t>
+  </si>
+  <si>
+    <t>0938660</t>
+  </si>
+  <si>
     <t>NV-6661</t>
   </si>
   <si>
@@ -525,24 +666,36 @@
     <t>8350025</t>
   </si>
   <si>
-    <t>NV-9114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Tuấn </t>
-  </si>
-  <si>
-    <t>0938660</t>
-  </si>
-  <si>
     <t>NV-5215</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>01/01/0001</t>
+  </si>
+  <si>
     <t>3472254</t>
   </si>
   <si>
+    <t>NV-1384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
+  </si>
+  <si>
+    <t>7288106</t>
+  </si>
+  <si>
+    <t>NV-4057</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hân</t>
+  </si>
+  <si>
+    <t>0622264</t>
+  </si>
+  <si>
     <t>NV-6922</t>
   </si>
   <si>
@@ -550,24 +703,6 @@
   </si>
   <si>
     <t>5041995</t>
-  </si>
-  <si>
-    <t>NV-1384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
-  </si>
-  <si>
-    <t>7288106</t>
-  </si>
-  <si>
-    <t>NV-4057</t>
-  </si>
-  <si>
-    <t>Bùi Thị Hân</t>
-  </si>
-  <si>
-    <t>0622264</t>
   </si>
   <si>
     <t>NV-6148</t>
@@ -681,7 +816,7 @@
     <col min="2" max="2" width="13.777589797973633" customWidth="1"/>
     <col min="3" max="3" width="27.00263023376465" customWidth="1"/>
     <col min="4" max="4" width="15.198502540588379" customWidth="1"/>
-    <col min="5" max="5" width="10.72513484954834" customWidth="1"/>
+    <col min="5" max="5" width="11.2464017868042" customWidth="1"/>
     <col min="6" max="6" width="14.393349647521973" customWidth="1"/>
     <col min="7" max="7" width="16.99909782409668" customWidth="1"/>
     <col min="8" max="8" width="13.014010429382324" customWidth="1"/>
@@ -759,20 +894,20 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
-        <v>36664</v>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1">
@@ -780,28 +915,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5">
-        <v>36664</v>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
@@ -809,28 +944,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5">
-        <v>36472</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
@@ -838,28 +973,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5">
-        <v>36664</v>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1">
@@ -867,28 +1002,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5">
-        <v>36664</v>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
@@ -896,28 +1031,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5">
-        <v>21779</v>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1">
@@ -925,28 +1060,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5">
-        <v>20467</v>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1">
@@ -954,28 +1089,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5">
-        <v>28793</v>
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1">
@@ -983,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5">
-        <v>28179</v>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1">
@@ -1012,28 +1147,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="5">
-        <v>23069</v>
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1">
@@ -1041,28 +1176,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5">
-        <v>27220</v>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1">
@@ -1070,28 +1205,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="5">
-        <v>36809</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1">
@@ -1099,28 +1234,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="5">
-        <v>24431</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1">
@@ -1128,28 +1263,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
-        <v>24427</v>
+      <c r="E17" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1">
@@ -1157,28 +1292,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="5">
-        <v>21882</v>
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1">
@@ -1186,28 +1321,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5">
-        <v>25479</v>
+      <c r="E19" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1">
@@ -1215,28 +1350,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5">
-        <v>29639</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1">
@@ -1244,28 +1379,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5">
-        <v>21070</v>
+      <c r="E21" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1">
@@ -1273,28 +1408,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="5">
-        <v>35488</v>
+        <v>23</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1">
@@ -1302,28 +1437,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="5">
-        <v>22346</v>
+        <v>55</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1">
@@ -1331,28 +1466,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="5">
-        <v>28871</v>
+        <v>23</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1">
@@ -1360,28 +1495,28 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="5">
-        <v>36448</v>
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1">
@@ -1389,28 +1524,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="5">
-        <v>35961</v>
+      <c r="E26" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1">
@@ -1418,28 +1553,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="5">
-        <v>24362</v>
+      <c r="E27" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1">
@@ -1447,28 +1582,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="5">
-        <v>20826</v>
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1">
@@ -1476,28 +1611,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="5">
-        <v>28796</v>
+        <v>23</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1">
@@ -1505,28 +1640,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="5">
-        <v>34005</v>
+        <v>55</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1">
@@ -1534,28 +1669,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="5">
-        <v>24441</v>
+      <c r="E31" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1">
@@ -1563,28 +1698,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="5">
-        <v>26365</v>
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1">
@@ -1592,28 +1727,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="5">
-        <v>33356</v>
+        <v>55</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1">
@@ -1621,28 +1756,28 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="5">
-        <v>20190</v>
+        <v>23</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1">
@@ -1650,28 +1785,28 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="5">
-        <v>32696</v>
+      <c r="E35" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1">
@@ -1679,28 +1814,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="5">
-        <v>32465</v>
+        <v>23</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1">
@@ -1708,28 +1843,28 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="5">
-        <v>33150</v>
+        <v>55</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1">
@@ -1737,28 +1872,28 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="5">
-        <v>36788</v>
+        <v>55</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1">
@@ -1766,28 +1901,28 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="5">
-        <v>31273</v>
+        <v>23</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1">
@@ -1795,28 +1930,28 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="5">
-        <v>36664</v>
+      <c r="E40" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1">
@@ -1824,28 +1959,28 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="5">
-        <v>36664</v>
+      <c r="E41" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1">
@@ -1853,28 +1988,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="5">
-        <v>26205</v>
+      <c r="E42" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
@@ -1882,28 +2017,28 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="5">
-        <v>23701</v>
+        <v>23</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1">
@@ -1911,28 +2046,28 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="5">
-        <v>29454</v>
+      <c r="E44" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1">
@@ -1940,28 +2075,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="5">
-        <v>30481</v>
+        <v>23</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
@@ -1969,28 +2104,28 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="5">
-        <v>23391</v>
+        <v>55</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1">
@@ -1998,28 +2133,28 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="5">
-        <v>22260</v>
+        <v>55</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1">
@@ -2027,28 +2162,28 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="5">
-        <v>19525</v>
+        <v>55</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1">
@@ -2056,28 +2191,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="5">
-        <v>19496</v>
+        <v>23</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1">
@@ -2085,28 +2220,28 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="5">
-        <v>18690</v>
+        <v>23</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1">
@@ -2114,28 +2249,28 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="5">
-        <v>18640</v>
+        <v>55</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1">
@@ -2143,28 +2278,28 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="5">
-        <v>18635</v>
+        <v>12</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1">
@@ -2172,28 +2307,28 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="5">
-        <v>18635</v>
+        <v>23</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1">
@@ -2201,21 +2336,23 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="I54" s="6"/>
     </row>
@@ -2224,21 +2361,23 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -2247,21 +2386,23 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="I56" s="6"/>
     </row>
@@ -2270,21 +2411,23 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -2293,21 +2436,23 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -2316,21 +2461,23 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E59" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I59" s="6"/>
     </row>

--- a/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
+++ b/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
   <si>
     <t>DANH SÁCH NHÂN VIÊN</t>
   </si>
@@ -44,70 +44,910 @@
     <t>Tên ngân hàng</t>
   </si>
   <si>
-    <t>NV-9978</t>
-  </si>
-  <si>
-    <t>Lê Quý Nhật sửa 1</t>
+    <t>NV-2191</t>
+  </si>
+  <si>
+    <t>Lê Quý Nhật</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>01/01/0001</t>
+  </si>
+  <si>
+    <t>Phòng kế toán</t>
+  </si>
+  <si>
+    <t>1616523</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>NV-2190</t>
+  </si>
+  <si>
+    <t>NV-2189</t>
   </si>
   <si>
     <t>Không xác định</t>
   </si>
   <si>
+    <t>08/11/1999</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Phòng nhân sự</t>
+  </si>
+  <si>
+    <t>161634523</t>
+  </si>
+  <si>
+    <t>NV-2185</t>
+  </si>
+  <si>
+    <t>Phúc LK</t>
+  </si>
+  <si>
+    <t>10/11/1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhân viên </t>
+  </si>
+  <si>
+    <t>Phòng công nghệ</t>
+  </si>
+  <si>
+    <t>9076786</t>
+  </si>
+  <si>
+    <t>Techcombank</t>
+  </si>
+  <si>
+    <t>NV-2184</t>
+  </si>
+  <si>
+    <t>Hoàng Phi Hồng</t>
+  </si>
+  <si>
+    <t>8032507345</t>
+  </si>
+  <si>
+    <t>Agribank</t>
+  </si>
+  <si>
+    <t>NV-2183</t>
+  </si>
+  <si>
+    <t>Đỗ Mạnh Hà</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>984592345</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>NV-2182</t>
+  </si>
+  <si>
+    <t>Đào Đình Hào</t>
+  </si>
+  <si>
+    <t>Phòng đào tạo</t>
+  </si>
+  <si>
+    <t>NV-2181</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hưng</t>
+  </si>
+  <si>
+    <t>NV-2180</t>
+  </si>
+  <si>
+    <t>Đoàn Danh Hưng</t>
+  </si>
+  <si>
+    <t>NV-2179</t>
+  </si>
+  <si>
+    <t>Hoàng Diễm Giang</t>
+  </si>
+  <si>
+    <t>16/11/1966</t>
+  </si>
+  <si>
+    <t>Bảo vệ</t>
+  </si>
+  <si>
+    <t>6863450419</t>
+  </si>
+  <si>
+    <t>ACB Bank</t>
+  </si>
+  <si>
+    <t>NV-2178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Việt Tuấn </t>
+  </si>
+  <si>
+    <t>11/04/1955</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>6093866085</t>
+  </si>
+  <si>
+    <t>VietinBank</t>
+  </si>
+  <si>
+    <t>NV-2177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thái Tuấn </t>
+  </si>
+  <si>
+    <t>17/05/1953</t>
+  </si>
+  <si>
+    <t>1762013613</t>
+  </si>
+  <si>
+    <t>NV-2176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Hương </t>
+  </si>
+  <si>
+    <t>16/01/1979</t>
+  </si>
+  <si>
+    <t>3117077059</t>
+  </si>
+  <si>
+    <t>NV-2175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nông Thái Hoàng </t>
+  </si>
+  <si>
+    <t>13/01/1956</t>
+  </si>
+  <si>
+    <t>1738170303</t>
+  </si>
+  <si>
+    <t>NV-2174</t>
+  </si>
+  <si>
+    <t>Hoàng Thùy Linh</t>
+  </si>
+  <si>
+    <t>03/08/2021</t>
+  </si>
+  <si>
+    <t>Giám đốc sở</t>
+  </si>
+  <si>
+    <t>098436456</t>
+  </si>
+  <si>
+    <t>NV-2173</t>
+  </si>
+  <si>
+    <t>Lê Khắc Tùng</t>
+  </si>
+  <si>
+    <t>23/05/2000</t>
+  </si>
+  <si>
+    <t>Phòng tài chính</t>
+  </si>
+  <si>
+    <t>tunglk</t>
+  </si>
+  <si>
+    <t>NV-2172</t>
+  </si>
+  <si>
+    <t>Nguyễn Mai Giang</t>
+  </si>
+  <si>
+    <t>28/11/1959</t>
+  </si>
+  <si>
+    <t>5556961507</t>
+  </si>
+  <si>
+    <t>NV-2171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Bằng </t>
+  </si>
+  <si>
+    <t>05/02/1993</t>
+  </si>
+  <si>
+    <t>0931941437</t>
+  </si>
+  <si>
+    <t>TP Bank</t>
+  </si>
+  <si>
+    <t>NV-2170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Văn Cường </t>
+  </si>
+  <si>
+    <t>03/03/1951</t>
+  </si>
+  <si>
+    <t>6055355976</t>
+  </si>
+  <si>
+    <t>NV-2169</t>
+  </si>
+  <si>
+    <t>Nguyễn Diễm Ngọc</t>
+  </si>
+  <si>
+    <t>07/01/1951</t>
+  </si>
+  <si>
+    <t>7355767374</t>
+  </si>
+  <si>
+    <t>NV-2168</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Hường</t>
+  </si>
+  <si>
     <t>18/05/2000</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thực tập sinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phòng giám đốc </t>
-  </si>
-  <si>
-    <t>8709971</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ACB Bank</t>
-  </si>
-  <si>
-    <t>NV-9977</t>
-  </si>
-  <si>
-    <t>Lê Quý Nhật sửa lần thứ ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phòng kỹ thuật </t>
-  </si>
-  <si>
-    <t>NV-9974</t>
-  </si>
-  <si>
-    <t>Lê Quý Nhật</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>08/11/1999</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>0123456</t>
-  </si>
-  <si>
-    <t>ACB Bank</t>
-  </si>
-  <si>
-    <t>NV-0811</t>
-  </si>
-  <si>
-    <t>Lê Quý Nhật sửa lần thứ nhất</t>
-  </si>
-  <si>
-    <t>NV-1999</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Hường</t>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>7225477671</t>
+  </si>
+  <si>
+    <t>NV-2167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Bằng </t>
+  </si>
+  <si>
+    <t>30/11/1966</t>
+  </si>
+  <si>
+    <t>0765346213</t>
+  </si>
+  <si>
+    <t>NV-2166</t>
+  </si>
+  <si>
+    <t>Hoàng Hà</t>
+  </si>
+  <si>
+    <t>12/08/1999</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>Vietinbank</t>
+  </si>
+  <si>
+    <t>NV-2165</t>
+  </si>
+  <si>
+    <t>Đoàn Hoàng Anh</t>
+  </si>
+  <si>
+    <t>01/02/2000</t>
+  </si>
+  <si>
+    <t>Lập Trình C#</t>
+  </si>
+  <si>
+    <t>7682542</t>
+  </si>
+  <si>
+    <t>Bắc Việt</t>
+  </si>
+  <si>
+    <t>NV-2164</t>
+  </si>
+  <si>
+    <t>HOÀNG MAI</t>
+  </si>
+  <si>
+    <t>20/10/1998</t>
+  </si>
+  <si>
+    <t>390-35463</t>
+  </si>
+  <si>
+    <t>BIDV</t>
+  </si>
+  <si>
+    <t>NV-2163</t>
+  </si>
+  <si>
+    <t>Quế Ngọc Hải</t>
+  </si>
+  <si>
+    <t>80879</t>
+  </si>
+  <si>
+    <t>VCB</t>
+  </si>
+  <si>
+    <t>NV-2162</t>
+  </si>
+  <si>
+    <t>NV-2161</t>
+  </si>
+  <si>
+    <t>NV-2160</t>
+  </si>
+  <si>
+    <t>Bùi tiến dũng</t>
+  </si>
+  <si>
+    <t>10/11/1998</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>897079</t>
+  </si>
+  <si>
+    <t>VP bank</t>
+  </si>
+  <si>
+    <t>NV-2159</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hằng</t>
+  </si>
+  <si>
+    <t>10/02/2000</t>
+  </si>
+  <si>
+    <t>BE Developer</t>
+  </si>
+  <si>
+    <t>89456-4</t>
+  </si>
+  <si>
+    <t>AGRE</t>
+  </si>
+  <si>
+    <t>NV-2158</t>
+  </si>
+  <si>
+    <t>NV-2157</t>
+  </si>
+  <si>
+    <t>Phạm Thị Trang</t>
+  </si>
+  <si>
+    <t>07/08/1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giám Đốc </t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>NV-2156</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bình</t>
+  </si>
+  <si>
+    <t>01/01/2002</t>
+  </si>
+  <si>
+    <t>NHân viên</t>
+  </si>
+  <si>
+    <t>bvn</t>
+  </si>
+  <si>
+    <t>NV-2155</t>
+  </si>
+  <si>
+    <t>Lê THị ÁNh</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công Nhân </t>
+  </si>
+  <si>
+    <t>8927</t>
+  </si>
+  <si>
+    <t>NV-2143</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Giám</t>
+  </si>
+  <si>
+    <t>9080364</t>
+  </si>
+  <si>
+    <t>VietCom</t>
+  </si>
+  <si>
+    <t>NV-2017</t>
+  </si>
+  <si>
+    <t>Lê Khắc Lộc</t>
+  </si>
+  <si>
+    <t>NV-2145</t>
+  </si>
+  <si>
+    <t>Trần Nhật Duẩn</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>Chủ cửa hàng</t>
+  </si>
+  <si>
+    <t>5432425</t>
+  </si>
+  <si>
+    <t>NV-2146</t>
+  </si>
+  <si>
+    <t>12/08/1992</t>
+  </si>
+  <si>
+    <t>NV-2025</t>
+  </si>
+  <si>
+    <t>Hoàng Anh Đức</t>
+  </si>
+  <si>
+    <t>28/01/1992</t>
+  </si>
+  <si>
+    <t>962521680</t>
+  </si>
+  <si>
+    <t>NV-2012</t>
+  </si>
+  <si>
+    <t>Hải Nam</t>
+  </si>
+  <si>
+    <t>NV-2144</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Nhật</t>
+  </si>
+  <si>
+    <t>02/01/2000</t>
+  </si>
+  <si>
+    <t>98252345</t>
+  </si>
+  <si>
+    <t>NV-2149</t>
+  </si>
+  <si>
+    <t>Đàm Vĩnh Hưng</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>Ca sỹ</t>
+  </si>
+  <si>
+    <t>035693</t>
+  </si>
+  <si>
+    <t>Việt Tin</t>
+  </si>
+  <si>
+    <t>NV-2029</t>
+  </si>
+  <si>
+    <t>Đoàn Tuấn Minh</t>
+  </si>
+  <si>
+    <t>NV-2022</t>
+  </si>
+  <si>
+    <t>Hoàng Nam</t>
+  </si>
+  <si>
+    <t>19/05/1999</t>
+  </si>
+  <si>
+    <t>Front End DV</t>
+  </si>
+  <si>
+    <t>90852340</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>NV-2019</t>
+  </si>
+  <si>
+    <t>Minh Anh</t>
+  </si>
+  <si>
+    <t>01/05/2001</t>
+  </si>
+  <si>
+    <t>minhanh</t>
+  </si>
+  <si>
+    <t>agrebank</t>
+  </si>
+  <si>
+    <t>NV-2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Long Vũ </t>
+  </si>
+  <si>
+    <t>21/02/2000</t>
+  </si>
+  <si>
+    <t>NV-2013</t>
+  </si>
+  <si>
+    <t>NV-2153</t>
+  </si>
+  <si>
+    <t>Lê Khắc Phúc</t>
+  </si>
+  <si>
+    <t>09/08/2021</t>
+  </si>
+  <si>
+    <t>NV-2150</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>03/01/1990</t>
+  </si>
+  <si>
+    <t>NV-2024</t>
+  </si>
+  <si>
+    <t>NV-2026</t>
+  </si>
+  <si>
+    <t>Hoàng Mai</t>
+  </si>
+  <si>
+    <t>07/08/2001</t>
+  </si>
+  <si>
+    <t>lephuc0125@gmail.com</t>
+  </si>
+  <si>
+    <t>vietcom</t>
+  </si>
+  <si>
+    <t>NV-1011</t>
+  </si>
+  <si>
+    <t>NV-2016</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Sáng</t>
+  </si>
+  <si>
+    <t>NV-2003</t>
+  </si>
+  <si>
+    <t>NV-2005</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Tuấn</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>NV-2021</t>
+  </si>
+  <si>
+    <t>Hà Hoàng</t>
+  </si>
+  <si>
+    <t>11/05/1999</t>
+  </si>
+  <si>
+    <t>Phó tổng</t>
+  </si>
+  <si>
+    <t>324525</t>
+  </si>
+  <si>
+    <t>VietComBank</t>
+  </si>
+  <si>
+    <t>NV-2011</t>
+  </si>
+  <si>
+    <t>Phí Hoàng Long</t>
+  </si>
+  <si>
+    <t>NV-2018</t>
+  </si>
+  <si>
+    <t>Lê Khắc Bình</t>
+  </si>
+  <si>
+    <t>NV-2014</t>
+  </si>
+  <si>
+    <t>Đoàn Thanh Sáng</t>
+  </si>
+  <si>
+    <t>09/05/2000</t>
+  </si>
+  <si>
+    <t>sangdt</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>NV-2027</t>
+  </si>
+  <si>
+    <t>NV-2010</t>
+  </si>
+  <si>
+    <t>Hoàng Hùng</t>
+  </si>
+  <si>
+    <t>24/02/2000</t>
+  </si>
+  <si>
+    <t>NV-2000</t>
+  </si>
+  <si>
+    <t>NV-2023</t>
+  </si>
+  <si>
+    <t>Nam ANH</t>
+  </si>
+  <si>
+    <t>7686987</t>
+  </si>
+  <si>
+    <t>NV-2015</t>
+  </si>
+  <si>
+    <t>NV-2002</t>
+  </si>
+  <si>
+    <t>Trần Trí Tùng</t>
+  </si>
+  <si>
+    <t>02/05/1994</t>
+  </si>
+  <si>
+    <t>768567</t>
+  </si>
+  <si>
+    <t>NamVuong</t>
+  </si>
+  <si>
+    <t>NV-2152</t>
+  </si>
+  <si>
+    <t>Phương Ớt</t>
+  </si>
+  <si>
+    <t>NV-2151</t>
+  </si>
+  <si>
+    <t>NV-2001</t>
+  </si>
+  <si>
+    <t>NV-2020</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Anh Thư</t>
+  </si>
+  <si>
+    <t>01/08/2010</t>
+  </si>
+  <si>
+    <t>704563</t>
+  </si>
+  <si>
+    <t>NV-1009</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ MInh Quân</t>
+  </si>
+  <si>
+    <t>01/09/2021</t>
+  </si>
+  <si>
+    <t>800234895</t>
+  </si>
+  <si>
+    <t>NV-2154</t>
+  </si>
+  <si>
+    <t>NV-2037</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>Bộ trưởng bộ ngọa giao</t>
+  </si>
+  <si>
+    <t>NV-2031</t>
+  </si>
+  <si>
+    <t>Lê Thị Mão</t>
+  </si>
+  <si>
+    <t>01/08/1990</t>
+  </si>
+  <si>
+    <t>NV-2033</t>
+  </si>
+  <si>
+    <t>Hoàng hoa thám</t>
+  </si>
+  <si>
+    <t>03/07/1972</t>
+  </si>
+  <si>
+    <t>9843456</t>
+  </si>
+  <si>
+    <t>NV-2035</t>
+  </si>
+  <si>
+    <t>Trần xuân tùng</t>
+  </si>
+  <si>
+    <t>Nhân viên kinh doanh</t>
+  </si>
+  <si>
+    <t>NV-2038</t>
+  </si>
+  <si>
+    <t>NV-2034</t>
+  </si>
+  <si>
+    <t>Nguyễn đức thắng</t>
+  </si>
+  <si>
+    <t>NV-2036</t>
+  </si>
+  <si>
+    <t>03/02/1998</t>
+  </si>
+  <si>
+    <t>0433890618</t>
+  </si>
+  <si>
+    <t>NV-2032</t>
+  </si>
+  <si>
+    <t>Lê Khắc Khang</t>
+  </si>
+  <si>
+    <t>NV-2039</t>
+  </si>
+  <si>
+    <t>Mai long nhật</t>
+  </si>
+  <si>
+    <t>NV-2030</t>
+  </si>
+  <si>
+    <t>Ngô Hoàng Thinh</t>
+  </si>
+  <si>
+    <t>NV-2067</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>4188553273</t>
+  </si>
+  <si>
+    <t>NV-2058</t>
+  </si>
+  <si>
+    <t>Trịnh Ngọc Diễm</t>
+  </si>
+  <si>
+    <t>9841798422</t>
+  </si>
+  <si>
+    <t>NV-2069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Trường </t>
+  </si>
+  <si>
+    <t>1515670974</t>
+  </si>
+  <si>
+    <t>NV-1000</t>
+  </si>
+  <si>
+    <t>Lê quý nhật</t>
+  </si>
+  <si>
+    <t>26/08/2021</t>
+  </si>
+  <si>
+    <t>973452345</t>
+  </si>
+  <si>
+    <t>NV-1384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
+  </si>
+  <si>
+    <t>9516869570</t>
+  </si>
+  <si>
+    <t>NV-2063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trân Tuấn Trường </t>
+  </si>
+  <si>
+    <t>5747425421</t>
+  </si>
+  <si>
+    <t>NV-2072</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hân</t>
+  </si>
+  <si>
+    <t>7282587627</t>
+  </si>
+  <si>
+    <t>NV-0812</t>
   </si>
   <si>
     <t>NV-1305</t>
@@ -119,34 +959,13 @@
     <t>17/08/1959</t>
   </si>
   <si>
-    <t xml:space="preserve">Giám đốc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phòng hành chính </t>
-  </si>
-  <si>
-    <t>7767183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP Bank </t>
-  </si>
-  <si>
-    <t>NV-5399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nông Thái Hoàng </t>
-  </si>
-  <si>
-    <t>13/01/1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trưởng phòng </t>
-  </si>
-  <si>
-    <t>1454490</t>
-  </si>
-  <si>
-    <t>NV-9764</t>
+    <t>8736511560</t>
+  </si>
+  <si>
+    <t>NV-2066</t>
+  </si>
+  <si>
+    <t>NV-2041</t>
   </si>
   <si>
     <t xml:space="preserve">Trịnh Tuấn Thái </t>
@@ -155,7 +974,7 @@
     <t>30/10/1978</t>
   </si>
   <si>
-    <t>8102092</t>
+    <t>9374264835</t>
   </si>
   <si>
     <t>NV-1288</t>
@@ -167,35 +986,22 @@
     <t>23/02/1977</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phó giám đốc </t>
-  </si>
-  <si>
-    <t>7673744</t>
-  </si>
-  <si>
-    <t>NV-5031</t>
+    <t>9197881406</t>
+  </si>
+  <si>
+    <t>NV-2068</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Văn Thành </t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>27/02/1963</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phòng nhân sự_x000D_
-</t>
-  </si>
-  <si>
-    <t>2339753</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Techcombank </t>
-  </si>
-  <si>
-    <t>NV-6195</t>
+    <t>1694933476</t>
+  </si>
+  <si>
+    <t>NV-2062</t>
   </si>
   <si>
     <t xml:space="preserve">Hoàng Ngọc Ngọc </t>
@@ -204,13 +1010,10 @@
     <t>10/07/1974</t>
   </si>
   <si>
-    <t>7097498</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vietin Bank </t>
-  </si>
-  <si>
-    <t>NV-9280</t>
+    <t>0685862914</t>
+  </si>
+  <si>
+    <t>NV-2045</t>
   </si>
   <si>
     <t>Mai Thị Ngọc</t>
@@ -219,10 +1022,10 @@
     <t>10/10/2000</t>
   </si>
   <si>
-    <t>6214051</t>
-  </si>
-  <si>
-    <t>NV-9227</t>
+    <t>4810209234</t>
+  </si>
+  <si>
+    <t>NV-2046</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Thái Trường </t>
@@ -231,43 +1034,16 @@
     <t>20/11/1966</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phòng kế toán </t>
-  </si>
-  <si>
-    <t>8823251</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agribank </t>
-  </si>
-  <si>
-    <t>NV-3265</t>
-  </si>
-  <si>
-    <t>Hoàng Diễm Giang</t>
-  </si>
-  <si>
-    <t>16/11/1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nhân viên </t>
-  </si>
-  <si>
-    <t>8951686</t>
-  </si>
-  <si>
-    <t>NV-7361</t>
-  </si>
-  <si>
-    <t>Nguyễn Mai Giang</t>
-  </si>
-  <si>
-    <t>28/11/1959</t>
-  </si>
-  <si>
-    <t>7242668</t>
-  </si>
-  <si>
-    <t>NV-7129</t>
+    <t>0285044887</t>
+  </si>
+  <si>
+    <t>NV-2076</t>
+  </si>
+  <si>
+    <t>NV-2055</t>
+  </si>
+  <si>
+    <t>NV-2057</t>
   </si>
   <si>
     <t>Nguyễn Thị Diễm</t>
@@ -276,7 +1052,7 @@
     <t>03/10/1969</t>
   </si>
   <si>
-    <t>4920401</t>
+    <t>6214051870</t>
   </si>
   <si>
     <t>NV-0946</t>
@@ -288,10 +1064,10 @@
     <t>22/02/1981</t>
   </si>
   <si>
-    <t>8507653</t>
-  </si>
-  <si>
-    <t>NV-6592</t>
+    <t>5876963492</t>
+  </si>
+  <si>
+    <t>NV-2061</t>
   </si>
   <si>
     <t xml:space="preserve">Bùi Văn Mạnh </t>
@@ -300,10 +1076,10 @@
     <t>07/09/1957</t>
   </si>
   <si>
-    <t>2582214</t>
-  </si>
-  <si>
-    <t>NV-3493</t>
+    <t>7664081506</t>
+  </si>
+  <si>
+    <t>NV-2073</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Ngọc Tuấn </t>
@@ -312,34 +1088,22 @@
     <t>27/02/1997</t>
   </si>
   <si>
-    <t>7728258</t>
-  </si>
-  <si>
-    <t>NV-6724</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hương</t>
+    <t>3466263877</t>
+  </si>
+  <si>
+    <t>NV-2059</t>
   </si>
   <si>
     <t>06/03/1961</t>
   </si>
   <si>
-    <t>7627093</t>
+    <t>0683728810</t>
   </si>
   <si>
     <t>NV-0638</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Ngọc Hương </t>
-  </si>
-  <si>
-    <t>16/01/1979</t>
-  </si>
-  <si>
-    <t>3117077</t>
-  </si>
-  <si>
-    <t>NV-2383</t>
+    <t>NV-2077</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Việt Bằng </t>
@@ -348,7 +1112,7 @@
     <t>15/10/1999</t>
   </si>
   <si>
-    <t>6137355</t>
+    <t>3150504400</t>
   </si>
   <si>
     <t>NV-0555</t>
@@ -360,10 +1124,10 @@
     <t>15/06/1998</t>
   </si>
   <si>
-    <t>3494265</t>
-  </si>
-  <si>
-    <t>NV-7730</t>
+    <t>7208650237</t>
+  </si>
+  <si>
+    <t>NV-2052</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Minh Minh </t>
@@ -372,10 +1136,10 @@
     <t>12/09/1966</t>
   </si>
   <si>
-    <t>4621363</t>
-  </si>
-  <si>
-    <t>NV-9969</t>
+    <t>0401072355</t>
+  </si>
+  <si>
+    <t>NV-2040</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Việt Trường </t>
@@ -384,7 +1148,7 @@
     <t>06/01/1957</t>
   </si>
   <si>
-    <t>6583075</t>
+    <t>3397539967</t>
   </si>
   <si>
     <t>NV-2142</t>
@@ -396,31 +1160,13 @@
     <t>02/11/1978</t>
   </si>
   <si>
-    <t>0041172</t>
-  </si>
-  <si>
-    <t>NV-7493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Bằng </t>
-  </si>
-  <si>
-    <t>05/02/1993</t>
-  </si>
-  <si>
-    <t>2014134</t>
-  </si>
-  <si>
-    <t>NV-8669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Bằng </t>
-  </si>
-  <si>
-    <t>30/11/1966</t>
-  </si>
-  <si>
-    <t>3466263</t>
+    <t>8372426687</t>
+  </si>
+  <si>
+    <t>NV-2053</t>
+  </si>
+  <si>
+    <t>NV-2051</t>
   </si>
   <si>
     <t>NV-0229</t>
@@ -432,10 +1178,10 @@
     <t>07/03/1972</t>
   </si>
   <si>
-    <t>9967855</t>
-  </si>
-  <si>
-    <t>NV-7292</t>
+    <t>1780539213</t>
+  </si>
+  <si>
+    <t>NV-2056</t>
   </si>
   <si>
     <t>Nguyễn Ngọc Ly</t>
@@ -444,22 +1190,13 @@
     <t>28/04/1991</t>
   </si>
   <si>
-    <t>2383127</t>
-  </si>
-  <si>
-    <t>NV-8745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Việt Tuấn </t>
-  </si>
-  <si>
-    <t>11/04/1955</t>
-  </si>
-  <si>
-    <t>1941437</t>
-  </si>
-  <si>
-    <t>NV-3364</t>
+    <t>6420141347</t>
+  </si>
+  <si>
+    <t>NV-2049</t>
+  </si>
+  <si>
+    <t>NV-2078</t>
   </si>
   <si>
     <t>Võ Mai Giang</t>
@@ -468,10 +1205,10 @@
     <t>07/07/1989</t>
   </si>
   <si>
-    <t>9570405</t>
-  </si>
-  <si>
-    <t>NV-7475</t>
+    <t>9565830750</t>
+  </si>
+  <si>
+    <t>NV-2054</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Tuấn Thành </t>
@@ -480,7 +1217,7 @@
     <t>18/11/1988</t>
   </si>
   <si>
-    <t>0303084</t>
+    <t>2285085094</t>
   </si>
   <si>
     <t>NV-1766</t>
@@ -492,10 +1229,10 @@
     <t>04/10/1990</t>
   </si>
   <si>
-    <t>0723557</t>
-  </si>
-  <si>
-    <t>NV-9603</t>
+    <t>9971004117</t>
+  </si>
+  <si>
+    <t>NV-2042</t>
   </si>
   <si>
     <t xml:space="preserve">Trịnh Việt Bằng </t>
@@ -504,10 +1241,10 @@
     <t>19/09/2000</t>
   </si>
   <si>
-    <t>8750103</t>
-  </si>
-  <si>
-    <t>NV-8739</t>
+    <t>9254984373</t>
+  </si>
+  <si>
+    <t>NV-2050</t>
   </si>
   <si>
     <t xml:space="preserve">Võ Minh Tuấn </t>
@@ -516,22 +1253,10 @@
     <t>14/08/1985</t>
   </si>
   <si>
-    <t>4254212</t>
-  </si>
-  <si>
-    <t>NV-1221</t>
-  </si>
-  <si>
-    <t>Trần Thị Huyền Trang</t>
-  </si>
-  <si>
-    <t>NV-1991</t>
-  </si>
-  <si>
-    <t>Nguyễn Mạnh Đạt</t>
-  </si>
-  <si>
-    <t>NV-6091</t>
+    <t>2612073323</t>
+  </si>
+  <si>
+    <t>NV-2064</t>
   </si>
   <si>
     <t>Trịnh Ngọc Giang</t>
@@ -540,19 +1265,19 @@
     <t>29/09/1971</t>
   </si>
   <si>
-    <t>8770683</t>
-  </si>
-  <si>
-    <t>NV-8798</t>
+    <t>6325822148</t>
+  </si>
+  <si>
+    <t>NV-2048</t>
   </si>
   <si>
     <t>20/11/1964</t>
   </si>
   <si>
-    <t>0925498</t>
-  </si>
-  <si>
-    <t>NV-4059</t>
+    <t>8553494265</t>
+  </si>
+  <si>
+    <t>NV-2071</t>
   </si>
   <si>
     <t>Mai Mai Lệ</t>
@@ -561,10 +1286,10 @@
     <t>21/08/1980</t>
   </si>
   <si>
-    <t>4179842</t>
-  </si>
-  <si>
-    <t>NV-4136</t>
+    <t>5762209788</t>
+  </si>
+  <si>
+    <t>NV-2070</t>
   </si>
   <si>
     <t>Nguyễn Ngọc Hân</t>
@@ -573,31 +1298,43 @@
     <t>14/06/1983</t>
   </si>
   <si>
-    <t>6640815</t>
-  </si>
-  <si>
-    <t>NV-3386</t>
+    <t>2145449011</t>
+  </si>
+  <si>
+    <t>NV-2044</t>
+  </si>
+  <si>
+    <t>Nguyễn Mai Hân</t>
+  </si>
+  <si>
+    <t>10/12/1960</t>
+  </si>
+  <si>
+    <t>9178350025</t>
+  </si>
+  <si>
+    <t>NV-2047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Tuấn </t>
+  </si>
+  <si>
+    <t>4058750103</t>
+  </si>
+  <si>
+    <t>NV-2074</t>
   </si>
   <si>
     <t>15/01/1964</t>
   </si>
   <si>
-    <t>6120733</t>
-  </si>
-  <si>
-    <t>NV-9368</t>
-  </si>
-  <si>
-    <t>Nguyễn Mai Hân</t>
-  </si>
-  <si>
-    <t>10/12/1960</t>
-  </si>
-  <si>
-    <t>5876963</t>
-  </si>
-  <si>
-    <t>NV-3052</t>
+    <t>8312706222</t>
+  </si>
+  <si>
+    <t>NV-2065</t>
+  </si>
+  <si>
+    <t>NV-2079</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Tuấn Trường </t>
@@ -606,34 +1343,10 @@
     <t>15/06/1953</t>
   </si>
   <si>
-    <t>1762013</t>
-  </si>
-  <si>
-    <t>NV-9583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thái Tuấn </t>
-  </si>
-  <si>
-    <t>17/05/1953</t>
-  </si>
-  <si>
-    <t>4373917</t>
-  </si>
-  <si>
-    <t>NV-5559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàng Văn Cường </t>
-  </si>
-  <si>
-    <t>03/03/1951</t>
-  </si>
-  <si>
-    <t>7173817</t>
-  </si>
-  <si>
-    <t>NV-3376</t>
+    <t>1061182929</t>
+  </si>
+  <si>
+    <t>NV-2075</t>
   </si>
   <si>
     <t>Nguyễn Thị Ly</t>
@@ -642,85 +1355,13 @@
     <t>12/01/1951</t>
   </si>
   <si>
-    <t>1115156</t>
-  </si>
-  <si>
-    <t>NV-9114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Tuấn </t>
-  </si>
-  <si>
-    <t>07/01/1951</t>
-  </si>
-  <si>
-    <t>0938660</t>
-  </si>
-  <si>
-    <t>NV-6661</t>
-  </si>
-  <si>
-    <t>Nguyễn Diễm Ngọc</t>
-  </si>
-  <si>
-    <t>8350025</t>
-  </si>
-  <si>
-    <t>NV-5215</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>01/01/0001</t>
-  </si>
-  <si>
-    <t>3472254</t>
-  </si>
-  <si>
-    <t>NV-1384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
-  </si>
-  <si>
-    <t>7288106</t>
-  </si>
-  <si>
-    <t>NV-4057</t>
-  </si>
-  <si>
-    <t>Bùi Thị Hân</t>
-  </si>
-  <si>
-    <t>0622264</t>
-  </si>
-  <si>
-    <t>NV-6922</t>
-  </si>
-  <si>
-    <t>Trịnh Ngọc Diễm</t>
-  </si>
-  <si>
-    <t>5041995</t>
-  </si>
-  <si>
-    <t>NV-6148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trân Tuấn Trường </t>
-  </si>
-  <si>
-    <t>0595747</t>
-  </si>
-  <si>
-    <t>NV-4963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Ngọc Trường </t>
-  </si>
-  <si>
-    <t>0668634</t>
+    <t>0848823251</t>
+  </si>
+  <si>
+    <t>NV-2060</t>
+  </si>
+  <si>
+    <t>NV-2043</t>
   </si>
 </sst>
 </file>
@@ -806,7 +1447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -814,12 +1455,12 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="13.777589797973633" customWidth="1"/>
-    <col min="3" max="3" width="27.00263023376465" customWidth="1"/>
+    <col min="3" max="3" width="21.971195220947266" customWidth="1"/>
     <col min="4" max="4" width="15.198502540588379" customWidth="1"/>
     <col min="5" max="5" width="11.2464017868042" customWidth="1"/>
-    <col min="6" max="6" width="14.393349647521973" customWidth="1"/>
-    <col min="7" max="7" width="16.99909782409668" customWidth="1"/>
-    <col min="8" max="8" width="13.014010429382324" customWidth="1"/>
+    <col min="6" max="6" width="21.944595336914062" customWidth="1"/>
+    <col min="7" max="7" width="16.399581909179688" customWidth="1"/>
+    <col min="8" max="8" width="22.64027976989746" customWidth="1"/>
     <col min="9" max="9" width="15.302886962890625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -897,17 +1538,15 @@
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1">
@@ -915,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
@@ -926,17 +1565,15 @@
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
@@ -944,28 +1581,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
@@ -973,28 +1610,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1">
@@ -1002,28 +1639,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
@@ -1031,28 +1668,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1">
@@ -1060,115 +1697,97 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" s="3" customFormat="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" s="3" customFormat="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" s="3" customFormat="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1">
@@ -1176,28 +1795,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1">
@@ -1205,28 +1824,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1">
@@ -1234,28 +1853,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1">
@@ -1263,28 +1882,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1">
@@ -1292,28 +1911,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1">
@@ -1321,28 +1940,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1">
@@ -1350,28 +1969,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1">
@@ -1379,28 +1998,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1">
@@ -1408,28 +2027,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1">
@@ -1437,28 +2056,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1">
@@ -1466,28 +2085,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1">
@@ -1495,28 +2114,28 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1">
@@ -1524,28 +2143,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1">
@@ -1553,28 +2172,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1">
@@ -1582,28 +2201,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="I28" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1">
@@ -1611,28 +2230,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="I29" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1">
@@ -1640,28 +2259,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1">
@@ -1669,28 +2288,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1">
@@ -1698,28 +2317,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1">
@@ -1727,28 +2346,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1">
@@ -1756,28 +2375,28 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1">
@@ -1785,28 +2404,28 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1">
@@ -1814,28 +2433,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1">
@@ -1843,28 +2462,28 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="I37" s="6" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1">
@@ -1872,28 +2491,28 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1">
@@ -1901,57 +2520,51 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F39" s="6"/>
       <c r="G39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" s="3" customFormat="1">
       <c r="A40" s="5">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1">
@@ -1959,28 +2572,28 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1">
@@ -1988,28 +2601,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
@@ -2017,57 +2630,53 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" s="3" customFormat="1">
       <c r="A44" s="5">
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="I44" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1">
@@ -2075,28 +2684,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="G45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="I45" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
@@ -2104,57 +2713,53 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" s="3" customFormat="1">
       <c r="A47" s="5">
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="G47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1">
@@ -2168,22 +2773,22 @@
         <v>195</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>196</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>197</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1">
@@ -2191,29 +2796,23 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" s="3" customFormat="1">
       <c r="A50" s="5">
@@ -2223,25 +2822,25 @@
         <v>202</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1">
@@ -2249,86 +2848,76 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F51" s="6"/>
       <c r="G51" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" s="3" customFormat="1">
       <c r="A52" s="5">
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" s="3" customFormat="1">
       <c r="A53" s="5">
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1">
@@ -2336,49 +2925,53 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G54" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I54" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="55" s="3" customFormat="1">
       <c r="A55" s="5">
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F55" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>223</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" s="3" customFormat="1">
@@ -2386,24 +2979,22 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>226</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" s="3" customFormat="1">
@@ -2411,49 +3002,53 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G57" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I57" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="58" s="3" customFormat="1">
       <c r="A58" s="5">
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>232</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
     <row r="59" s="3" customFormat="1">
@@ -2461,25 +3056,2151 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1">
+      <c r="A60" s="5">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" s="3" customFormat="1">
+      <c r="A61" s="5">
+        <v>58</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" s="3" customFormat="1">
+      <c r="A62" s="5">
+        <v>59</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" s="6" t="s">
+      <c r="F62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="I59" s="6"/>
+      <c r="I62" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1">
+      <c r="A63" s="5">
+        <v>60</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1">
+      <c r="A64" s="5">
+        <v>61</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" s="3" customFormat="1">
+      <c r="A65" s="5">
+        <v>62</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1">
+      <c r="A66" s="5">
+        <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1">
+      <c r="A67" s="5">
+        <v>64</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1">
+      <c r="A68" s="5">
+        <v>65</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1">
+      <c r="A69" s="5">
+        <v>66</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" s="3" customFormat="1">
+      <c r="A70" s="5">
+        <v>67</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1">
+      <c r="A71" s="5">
+        <v>68</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" s="3" customFormat="1">
+      <c r="A72" s="5">
+        <v>69</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1">
+      <c r="A73" s="5">
+        <v>70</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1">
+      <c r="A74" s="5">
+        <v>71</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" s="3" customFormat="1">
+      <c r="A75" s="5">
+        <v>72</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" s="3" customFormat="1">
+      <c r="A76" s="5">
+        <v>73</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" s="3" customFormat="1">
+      <c r="A77" s="5">
+        <v>74</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" s="3" customFormat="1">
+      <c r="A78" s="5">
+        <v>75</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" s="3" customFormat="1">
+      <c r="A79" s="5">
+        <v>76</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" s="3" customFormat="1">
+      <c r="A80" s="5">
+        <v>77</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" s="3" customFormat="1">
+      <c r="A81" s="5">
+        <v>78</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1">
+      <c r="A82" s="5">
+        <v>79</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" s="3" customFormat="1">
+      <c r="A83" s="5">
+        <v>80</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" s="3" customFormat="1">
+      <c r="A84" s="5">
+        <v>81</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" s="3" customFormat="1">
+      <c r="A85" s="5">
+        <v>82</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" s="3" customFormat="1">
+      <c r="A86" s="5">
+        <v>83</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" s="3" customFormat="1">
+      <c r="A87" s="5">
+        <v>84</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" s="3" customFormat="1">
+      <c r="A88" s="5">
+        <v>85</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" s="3" customFormat="1">
+      <c r="A89" s="5">
+        <v>86</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" s="3" customFormat="1">
+      <c r="A90" s="5">
+        <v>87</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" s="3" customFormat="1">
+      <c r="A91" s="5">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" s="3" customFormat="1">
+      <c r="A92" s="5">
+        <v>89</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" s="3" customFormat="1">
+      <c r="A93" s="5">
+        <v>90</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" s="3" customFormat="1">
+      <c r="A94" s="5">
+        <v>91</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" s="3" customFormat="1">
+      <c r="A95" s="5">
+        <v>92</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" s="3" customFormat="1">
+      <c r="A96" s="5">
+        <v>93</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" s="3" customFormat="1">
+      <c r="A97" s="5">
+        <v>94</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" s="3" customFormat="1">
+      <c r="A98" s="5">
+        <v>95</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" s="3" customFormat="1">
+      <c r="A99" s="5">
+        <v>96</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" s="3" customFormat="1">
+      <c r="A100" s="5">
+        <v>97</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" s="3" customFormat="1">
+      <c r="A101" s="5">
+        <v>98</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" s="3" customFormat="1">
+      <c r="A102" s="5">
+        <v>99</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="1">
+      <c r="A103" s="5">
+        <v>100</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" s="3" customFormat="1">
+      <c r="A104" s="5">
+        <v>101</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" s="3" customFormat="1">
+      <c r="A105" s="5">
+        <v>102</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" s="3" customFormat="1">
+      <c r="A106" s="5">
+        <v>103</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" s="3" customFormat="1">
+      <c r="A107" s="5">
+        <v>104</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" s="3" customFormat="1">
+      <c r="A108" s="5">
+        <v>105</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" s="3" customFormat="1">
+      <c r="A109" s="5">
+        <v>106</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" s="3" customFormat="1">
+      <c r="A110" s="5">
+        <v>107</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" s="3" customFormat="1">
+      <c r="A111" s="5">
+        <v>108</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" s="3" customFormat="1">
+      <c r="A112" s="5">
+        <v>109</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" s="3" customFormat="1">
+      <c r="A113" s="5">
+        <v>110</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" s="3" customFormat="1">
+      <c r="A114" s="5">
+        <v>111</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" s="3" customFormat="1">
+      <c r="A115" s="5">
+        <v>112</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" s="3" customFormat="1">
+      <c r="A116" s="5">
+        <v>113</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" s="3" customFormat="1">
+      <c r="A117" s="5">
+        <v>114</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" s="3" customFormat="1">
+      <c r="A118" s="5">
+        <v>115</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" s="3" customFormat="1">
+      <c r="A119" s="5">
+        <v>116</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" s="3" customFormat="1">
+      <c r="A120" s="5">
+        <v>117</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" s="3" customFormat="1">
+      <c r="A121" s="5">
+        <v>118</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" s="3" customFormat="1">
+      <c r="A122" s="5">
+        <v>119</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" s="3" customFormat="1">
+      <c r="A123" s="5">
+        <v>120</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" s="3" customFormat="1">
+      <c r="A124" s="5">
+        <v>121</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" s="3" customFormat="1">
+      <c r="A125" s="5">
+        <v>122</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" s="3" customFormat="1">
+      <c r="A126" s="5">
+        <v>123</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" s="3" customFormat="1">
+      <c r="A127" s="5">
+        <v>124</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" s="3" customFormat="1">
+      <c r="A128" s="5">
+        <v>125</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" s="3" customFormat="1">
+      <c r="A129" s="5">
+        <v>126</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" s="3" customFormat="1">
+      <c r="A130" s="5">
+        <v>127</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" s="3" customFormat="1">
+      <c r="A131" s="5">
+        <v>128</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" s="3" customFormat="1">
+      <c r="A132" s="5">
+        <v>129</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" s="3" customFormat="1">
+      <c r="A133" s="5">
+        <v>130</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" s="3" customFormat="1">
+      <c r="A134" s="5">
+        <v>131</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" s="3" customFormat="1">
+      <c r="A135" s="5">
+        <v>132</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>

--- a/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
+++ b/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
   <si>
     <t>DANH SÁCH NHÂN VIÊN</t>
   </si>
@@ -44,57 +44,126 @@
     <t>Tên ngân hàng</t>
   </si>
   <si>
+    <t>NV-2269</t>
+  </si>
+  <si>
+    <t>Lê Quý Nhật</t>
+  </si>
+  <si>
+    <t>Không xác định</t>
+  </si>
+  <si>
+    <t>08/11/1999</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Phòng kế toán</t>
+  </si>
+  <si>
+    <t>12212</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>NV-2268</t>
+  </si>
+  <si>
+    <t>Đỗ Mạnh Hà</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>10/11/1999</t>
+  </si>
+  <si>
+    <t>984592345</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>NV-2262</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>01234567879</t>
+  </si>
+  <si>
+    <t>NV-2261</t>
+  </si>
+  <si>
+    <t>Hoàng Hà</t>
+  </si>
+  <si>
+    <t>12/08/1999</t>
+  </si>
+  <si>
+    <t>Phòng tài chính</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>Vietinbank</t>
+  </si>
+  <si>
+    <t>NV-2260</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Hường</t>
+  </si>
+  <si>
+    <t>18/05/2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thực tập sinh</t>
+  </si>
+  <si>
+    <t>8709971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACB Bank</t>
+  </si>
+  <si>
     <t>NV-2259</t>
   </si>
   <si>
-    <t>Nguyễn Mạnh Đạt</t>
-  </si>
-  <si>
-    <t>Không xác định</t>
-  </si>
-  <si>
-    <t>08/11/1999</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>Phòng kế toán</t>
+    <t xml:space="preserve">Nguyễn Văn Bằng </t>
+  </si>
+  <si>
+    <t>05/02/1993</t>
+  </si>
+  <si>
+    <t>Bảo vệ</t>
+  </si>
+  <si>
+    <t>Phòng đào tạo</t>
+  </si>
+  <si>
+    <t>0931941437</t>
+  </si>
+  <si>
+    <t>TP Bank</t>
   </si>
   <si>
     <t>NV-2258</t>
   </si>
   <si>
-    <t>Đỗ Mạnh Hà</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>10/11/1999</t>
-  </si>
-  <si>
-    <t>984592345</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
     <t>NV-2257</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Thái Tuấn </t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>17/05/1953</t>
   </si>
   <si>
-    <t>Bảo vệ</t>
-  </si>
-  <si>
     <t>Phòng công nghệ</t>
   </si>
   <si>
@@ -119,9 +188,6 @@
     <t>0848823251</t>
   </si>
   <si>
-    <t>TP Bank</t>
-  </si>
-  <si>
     <t>NV-2255</t>
   </si>
   <si>
@@ -170,12 +236,6 @@
     <t>NV-2252</t>
   </si>
   <si>
-    <t>Trịnh Thị Hường</t>
-  </si>
-  <si>
-    <t>18/05/2000</t>
-  </si>
-  <si>
     <t>Quản lý</t>
   </si>
   <si>
@@ -185,39 +245,12 @@
     <t>NV-2251</t>
   </si>
   <si>
-    <t>Hoàng Hà</t>
-  </si>
-  <si>
-    <t>12/08/1999</t>
-  </si>
-  <si>
-    <t>Phòng tài chính</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>Vietinbank</t>
-  </si>
-  <si>
     <t>NV-2250</t>
   </si>
   <si>
     <t>NV-2249</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Văn Bằng </t>
-  </si>
-  <si>
-    <t>05/02/1993</t>
-  </si>
-  <si>
-    <t>Phòng đào tạo</t>
-  </si>
-  <si>
-    <t>0931941437</t>
-  </si>
-  <si>
     <t>NV-2248</t>
   </si>
   <si>
@@ -311,9 +344,6 @@
     <t>NHân viên</t>
   </si>
   <si>
-    <t>ACB</t>
-  </si>
-  <si>
     <t>NV-2241</t>
   </si>
   <si>
@@ -383,9 +413,6 @@
     <t>NV-2234</t>
   </si>
   <si>
-    <t>Lê Quý Nhật</t>
-  </si>
-  <si>
     <t>161634523</t>
   </si>
   <si>
@@ -770,16 +797,187 @@
     <t>bvn</t>
   </si>
   <si>
+    <t>NV-2000</t>
+  </si>
+  <si>
+    <t>NV-2019</t>
+  </si>
+  <si>
+    <t>Minh Anh</t>
+  </si>
+  <si>
+    <t>01/05/2001</t>
+  </si>
+  <si>
+    <t>minhanh</t>
+  </si>
+  <si>
+    <t>agrebank</t>
+  </si>
+  <si>
+    <t>NV-2010</t>
+  </si>
+  <si>
+    <t>Hoàng Hùng</t>
+  </si>
+  <si>
+    <t>24/02/2000</t>
+  </si>
+  <si>
+    <t>NV-2023</t>
+  </si>
+  <si>
+    <t>NV-2002</t>
+  </si>
+  <si>
+    <t>Trần Trí Tùng</t>
+  </si>
+  <si>
+    <t>02/05/1994</t>
+  </si>
+  <si>
+    <t>768567</t>
+  </si>
+  <si>
+    <t>NamVuong</t>
+  </si>
+  <si>
+    <t>NV-2153</t>
+  </si>
+  <si>
+    <t>Lê Khắc Phúc</t>
+  </si>
+  <si>
+    <t>09/08/2021</t>
+  </si>
+  <si>
+    <t>NV-2150</t>
+  </si>
+  <si>
+    <t>Đàm Vĩnh Hưng</t>
+  </si>
+  <si>
+    <t>03/01/1990</t>
+  </si>
+  <si>
+    <t>Ca sỹ</t>
+  </si>
+  <si>
+    <t>NV-2026</t>
+  </si>
+  <si>
+    <t>lephuc0125@gmail.com</t>
+  </si>
+  <si>
+    <t>NV-2005</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>NV-2149</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>035693</t>
+  </si>
+  <si>
+    <t>Việt Tin</t>
+  </si>
+  <si>
+    <t>NV-2017</t>
+  </si>
+  <si>
+    <t>Lê Khắc Lộc</t>
+  </si>
+  <si>
+    <t>NV-2015</t>
+  </si>
+  <si>
+    <t>NV-2146</t>
+  </si>
+  <si>
+    <t>Trần Nhật Duẩn</t>
+  </si>
+  <si>
+    <t>12/08/1992</t>
+  </si>
+  <si>
+    <t>Chủ cửa hàng</t>
+  </si>
+  <si>
+    <t>5432425</t>
+  </si>
+  <si>
+    <t>NV-2021</t>
+  </si>
+  <si>
+    <t>Hà Hoàng</t>
+  </si>
+  <si>
+    <t>11/05/1999</t>
+  </si>
+  <si>
+    <t>Phó tổng</t>
+  </si>
+  <si>
+    <t>324525</t>
+  </si>
+  <si>
+    <t>VietComBank</t>
+  </si>
+  <si>
+    <t>NV-2003</t>
+  </si>
+  <si>
+    <t>NV-1009</t>
+  </si>
+  <si>
+    <t>NV-2013</t>
+  </si>
+  <si>
+    <t>NV-2145</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
     <t>NV-2011</t>
   </si>
   <si>
     <t>Phí Hoàng Long</t>
   </si>
   <si>
-    <t>NV-2005</t>
-  </si>
-  <si>
-    <t>08/08/2016</t>
+    <t>NV-2025</t>
+  </si>
+  <si>
+    <t>Hoàng Anh Đức</t>
+  </si>
+  <si>
+    <t>28/01/1992</t>
+  </si>
+  <si>
+    <t>962521680</t>
+  </si>
+  <si>
+    <t>NV-2018</t>
+  </si>
+  <si>
+    <t>NV-2020</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Anh Thư</t>
+  </si>
+  <si>
+    <t>01/08/2010</t>
+  </si>
+  <si>
+    <t>704563</t>
+  </si>
+  <si>
+    <t>NV-2027</t>
   </si>
   <si>
     <t>NV-2144</t>
@@ -794,241 +992,76 @@
     <t>98252345</t>
   </si>
   <si>
+    <t>NV-2024</t>
+  </si>
+  <si>
+    <t>NV-2152</t>
+  </si>
+  <si>
+    <t>Phương Ớt</t>
+  </si>
+  <si>
+    <t>NV-2154</t>
+  </si>
+  <si>
+    <t>NV-2016</t>
+  </si>
+  <si>
+    <t>NV-2151</t>
+  </si>
+  <si>
+    <t>NV-1011</t>
+  </si>
+  <si>
+    <t>Đoàn Tuấn Minh</t>
+  </si>
+  <si>
+    <t>NV-2012</t>
+  </si>
+  <si>
+    <t>Hải Nam</t>
+  </si>
+  <si>
+    <t>NV-2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Long Vũ </t>
+  </si>
+  <si>
+    <t>21/02/2000</t>
+  </si>
+  <si>
+    <t>NV-2029</t>
+  </si>
+  <si>
     <t>NV-2143</t>
   </si>
   <si>
+    <t>NV-2014</t>
+  </si>
+  <si>
+    <t>Đoàn Thanh Sáng</t>
+  </si>
+  <si>
+    <t>09/05/2000</t>
+  </si>
+  <si>
+    <t>sangdt</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>NV-2001</t>
+  </si>
+  <si>
     <t>NV-2022</t>
   </si>
   <si>
-    <t>NV-2154</t>
-  </si>
-  <si>
-    <t>NV-2021</t>
-  </si>
-  <si>
-    <t>Hà Hoàng</t>
-  </si>
-  <si>
-    <t>11/05/1999</t>
-  </si>
-  <si>
-    <t>Phó tổng</t>
-  </si>
-  <si>
-    <t>324525</t>
-  </si>
-  <si>
-    <t>VietComBank</t>
-  </si>
-  <si>
-    <t>NV-2026</t>
-  </si>
-  <si>
-    <t>lephuc0125@gmail.com</t>
-  </si>
-  <si>
-    <t>NV-2146</t>
-  </si>
-  <si>
-    <t>Trần Nhật Duẩn</t>
-  </si>
-  <si>
-    <t>12/08/1992</t>
-  </si>
-  <si>
-    <t>Chủ cửa hàng</t>
-  </si>
-  <si>
-    <t>5432425</t>
-  </si>
-  <si>
-    <t>NV-2152</t>
-  </si>
-  <si>
-    <t>Phương Ớt</t>
-  </si>
-  <si>
-    <t>NV-2002</t>
-  </si>
-  <si>
-    <t>Trần Trí Tùng</t>
-  </si>
-  <si>
-    <t>02/05/1994</t>
-  </si>
-  <si>
-    <t>768567</t>
-  </si>
-  <si>
-    <t>NamVuong</t>
-  </si>
-  <si>
-    <t>NV-2020</t>
-  </si>
-  <si>
-    <t>Đoàn Thị Anh Thư</t>
-  </si>
-  <si>
-    <t>01/08/2010</t>
-  </si>
-  <si>
-    <t>704563</t>
-  </si>
-  <si>
-    <t>NV-2014</t>
-  </si>
-  <si>
-    <t>Đoàn Thanh Sáng</t>
-  </si>
-  <si>
-    <t>09/05/2000</t>
-  </si>
-  <si>
-    <t>sangdt</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>NV-2016</t>
-  </si>
-  <si>
-    <t>NV-2012</t>
-  </si>
-  <si>
-    <t>Hải Nam</t>
-  </si>
-  <si>
-    <t>NV-2149</t>
-  </si>
-  <si>
-    <t>Đàm Vĩnh Hưng</t>
-  </si>
-  <si>
-    <t>03/05/2000</t>
-  </si>
-  <si>
-    <t>Ca sỹ</t>
-  </si>
-  <si>
-    <t>035693</t>
-  </si>
-  <si>
-    <t>Việt Tin</t>
-  </si>
-  <si>
-    <t>NV-2145</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>NV-2003</t>
-  </si>
-  <si>
-    <t>NV-2010</t>
-  </si>
-  <si>
-    <t>Hoàng Hùng</t>
-  </si>
-  <si>
-    <t>24/02/2000</t>
-  </si>
-  <si>
-    <t>NV-2018</t>
-  </si>
-  <si>
-    <t>NV-2025</t>
-  </si>
-  <si>
-    <t>Hoàng Anh Đức</t>
-  </si>
-  <si>
-    <t>28/01/1992</t>
-  </si>
-  <si>
-    <t>962521680</t>
-  </si>
-  <si>
-    <t>NV-1009</t>
-  </si>
-  <si>
-    <t>NV-2000</t>
-  </si>
-  <si>
-    <t>NV-2024</t>
-  </si>
-  <si>
-    <t>NV-2027</t>
-  </si>
-  <si>
-    <t>NV-1011</t>
-  </si>
-  <si>
-    <t>Đoàn Tuấn Minh</t>
-  </si>
-  <si>
-    <t>NV-2153</t>
-  </si>
-  <si>
-    <t>Lê Khắc Phúc</t>
-  </si>
-  <si>
-    <t>09/08/2021</t>
-  </si>
-  <si>
-    <t>NV-2029</t>
-  </si>
-  <si>
-    <t>NV-2019</t>
-  </si>
-  <si>
-    <t>Minh Anh</t>
-  </si>
-  <si>
-    <t>01/05/2001</t>
-  </si>
-  <si>
-    <t>minhanh</t>
-  </si>
-  <si>
-    <t>agrebank</t>
-  </si>
-  <si>
-    <t>NV-2150</t>
-  </si>
-  <si>
-    <t>03/01/1990</t>
-  </si>
-  <si>
-    <t>NV-2017</t>
-  </si>
-  <si>
-    <t>Lê Khắc Lộc</t>
-  </si>
-  <si>
-    <t>NV-2015</t>
-  </si>
-  <si>
-    <t>NV-2013</t>
-  </si>
-  <si>
-    <t>NV-2151</t>
-  </si>
-  <si>
-    <t>NV-2023</t>
-  </si>
-  <si>
-    <t>NV-2001</t>
-  </si>
-  <si>
-    <t>NV-2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Long Vũ </t>
-  </si>
-  <si>
-    <t>21/02/2000</t>
+    <t>NV-2039</t>
+  </si>
+  <si>
+    <t>Mai long nhật</t>
   </si>
   <si>
     <t>NV-2035</t>
@@ -1040,6 +1073,12 @@
     <t>Nhân viên kinh doanh</t>
   </si>
   <si>
+    <t>NV-2030</t>
+  </si>
+  <si>
+    <t>Ngô Hoàng Thinh</t>
+  </si>
+  <si>
     <t>NV-2033</t>
   </si>
   <si>
@@ -1070,16 +1109,19 @@
     <t>Bộ trưởng bộ ngọa giao</t>
   </si>
   <si>
-    <t>NV-2030</t>
-  </si>
-  <si>
-    <t>Ngô Hoàng Thinh</t>
-  </si>
-  <si>
-    <t>NV-2039</t>
-  </si>
-  <si>
-    <t>Mai long nhật</t>
+    <t>NV-2036</t>
+  </si>
+  <si>
+    <t>03/02/1998</t>
+  </si>
+  <si>
+    <t>0433890618</t>
+  </si>
+  <si>
+    <t>NV-2032</t>
+  </si>
+  <si>
+    <t>Lê Khắc Khang</t>
   </si>
   <si>
     <t>NV-2031</t>
@@ -1091,19 +1133,22 @@
     <t>01/08/1990</t>
   </si>
   <si>
-    <t>NV-2032</t>
-  </si>
-  <si>
-    <t>Lê Khắc Khang</t>
-  </si>
-  <si>
-    <t>NV-2036</t>
-  </si>
-  <si>
-    <t>03/02/1998</t>
-  </si>
-  <si>
-    <t>0433890618</t>
+    <t>NV-2058</t>
+  </si>
+  <si>
+    <t>Trịnh Ngọc Diễm</t>
+  </si>
+  <si>
+    <t>9841798422</t>
+  </si>
+  <si>
+    <t>NV-1384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
+  </si>
+  <si>
+    <t>9516869570</t>
   </si>
   <si>
     <t>NV-2069</t>
@@ -1115,6 +1160,27 @@
     <t>1515670974</t>
   </si>
   <si>
+    <t>NV-1000</t>
+  </si>
+  <si>
+    <t>Lê quý nhật</t>
+  </si>
+  <si>
+    <t>26/08/2021</t>
+  </si>
+  <si>
+    <t>973452345</t>
+  </si>
+  <si>
+    <t>NV-2067</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>4188553273</t>
+  </si>
+  <si>
     <t>NV-2072</t>
   </si>
   <si>
@@ -1124,24 +1190,6 @@
     <t>7282587627</t>
   </si>
   <si>
-    <t>NV-2067</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hương</t>
-  </si>
-  <si>
-    <t>4188553273</t>
-  </si>
-  <si>
-    <t>NV-1384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
-  </si>
-  <si>
-    <t>9516869570</t>
-  </si>
-  <si>
     <t>NV-2063</t>
   </si>
   <si>
@@ -1151,27 +1199,6 @@
     <t>5747425421</t>
   </si>
   <si>
-    <t>NV-1000</t>
-  </si>
-  <si>
-    <t>Lê quý nhật</t>
-  </si>
-  <si>
-    <t>26/08/2021</t>
-  </si>
-  <si>
-    <t>973452345</t>
-  </si>
-  <si>
-    <t>NV-2058</t>
-  </si>
-  <si>
-    <t>Trịnh Ngọc Diễm</t>
-  </si>
-  <si>
-    <t>9841798422</t>
-  </si>
-  <si>
     <t>NV-0812</t>
   </si>
   <si>
@@ -1538,6 +1565,24 @@
     <t>1061182929</t>
   </si>
   <si>
+    <t>NV-2047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Tuấn </t>
+  </si>
+  <si>
+    <t>4058750103</t>
+  </si>
+  <si>
+    <t>NV-2074</t>
+  </si>
+  <si>
+    <t>15/01/1964</t>
+  </si>
+  <si>
+    <t>8312706222</t>
+  </si>
+  <si>
     <t>NV-2044</t>
   </si>
   <si>
@@ -1550,31 +1595,13 @@
     <t>9178350025</t>
   </si>
   <si>
-    <t>NV-2047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Tuấn </t>
-  </si>
-  <si>
-    <t>4058750103</t>
+    <t>NV-2075</t>
+  </si>
+  <si>
+    <t>NV-2043</t>
   </si>
   <si>
     <t>NV-2065</t>
-  </si>
-  <si>
-    <t>NV-2074</t>
-  </si>
-  <si>
-    <t>15/01/1964</t>
-  </si>
-  <si>
-    <t>8312706222</t>
-  </si>
-  <si>
-    <t>NV-2043</t>
-  </si>
-  <si>
-    <t>NV-2075</t>
   </si>
   <si>
     <t>NV-2060</t>
@@ -1669,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1766,24 +1793,28 @@
       <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
@@ -1792,10 +1823,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
@@ -1803,28 +1834,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
@@ -1832,28 +1863,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1">
@@ -1861,28 +1892,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
@@ -1890,28 +1921,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1">
@@ -1919,28 +1950,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1">
@@ -1948,28 +1979,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1">
@@ -1977,28 +2008,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1">
@@ -2006,28 +2037,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1">
@@ -2041,22 +2072,22 @@
         <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1">
@@ -2064,28 +2095,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1">
@@ -2093,28 +2124,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1">
@@ -2122,28 +2153,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1">
@@ -2154,25 +2185,25 @@
         <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1">
@@ -2180,28 +2211,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1">
@@ -2209,28 +2240,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1">
@@ -2238,28 +2269,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1">
@@ -2267,28 +2298,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1">
@@ -2296,53 +2327,57 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" s="3" customFormat="1">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1">
@@ -2350,28 +2385,28 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1">
@@ -2379,28 +2414,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1">
@@ -2408,28 +2443,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1">
@@ -2437,57 +2472,53 @@
         <v>25</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>121</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" s="3" customFormat="1">
       <c r="A29" s="6">
         <v>26</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1">
@@ -2495,28 +2526,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1">
@@ -2524,28 +2555,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1">
@@ -2553,28 +2584,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1">
@@ -2582,28 +2613,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1">
@@ -2611,28 +2642,28 @@
         <v>31</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1">
@@ -2640,28 +2671,28 @@
         <v>32</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1">
@@ -2669,28 +2700,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1">
@@ -2698,28 +2729,28 @@
         <v>34</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1">
@@ -2727,28 +2758,28 @@
         <v>35</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1">
@@ -2756,28 +2787,28 @@
         <v>36</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1">
@@ -2785,28 +2816,28 @@
         <v>37</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1">
@@ -2814,28 +2845,28 @@
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1">
@@ -2843,28 +2874,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
@@ -2872,28 +2903,28 @@
         <v>40</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1">
@@ -2901,28 +2932,28 @@
         <v>41</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1">
@@ -2930,28 +2961,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
@@ -2959,28 +2990,28 @@
         <v>43</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1">
@@ -2988,28 +3019,28 @@
         <v>44</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1">
@@ -3017,28 +3048,28 @@
         <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1">
@@ -3046,28 +3077,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1">
@@ -3075,28 +3106,28 @@
         <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1">
@@ -3104,28 +3135,28 @@
         <v>48</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1">
@@ -3133,28 +3164,28 @@
         <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1">
@@ -3165,25 +3196,25 @@
         <v>166</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1">
@@ -3194,25 +3225,25 @@
         <v>167</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1">
@@ -3223,25 +3254,25 @@
         <v>168</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1">
@@ -3249,28 +3280,28 @@
         <v>53</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="1">
@@ -3278,28 +3309,28 @@
         <v>54</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="I57" s="7" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1">
@@ -3307,28 +3338,28 @@
         <v>55</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1">
@@ -3336,25 +3367,29 @@
         <v>56</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="60" s="3" customFormat="1">
       <c r="A60" s="6">
@@ -3367,22 +3402,22 @@
         <v>101</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" s="3" customFormat="1">
@@ -3393,50 +3428,54 @@
         <v>178</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
     </row>
     <row r="62" s="3" customFormat="1">
       <c r="A62" s="6">
         <v>59</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="G62" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="1">
@@ -3444,28 +3483,28 @@
         <v>60</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1">
@@ -3473,55 +3512,53 @@
         <v>61</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G64" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" s="3" customFormat="1">
       <c r="A65" s="6">
         <v>62</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" s="3" customFormat="1">
@@ -3529,20 +3566,22 @@
         <v>63</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F66" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="G66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -3555,25 +3594,25 @@
         <v>188</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" s="3" customFormat="1">
@@ -3584,25 +3623,25 @@
         <v>189</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" s="3" customFormat="1">
@@ -3610,28 +3649,26 @@
         <v>66</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="D69" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1">
@@ -3639,28 +3676,28 @@
         <v>67</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" s="3" customFormat="1">
@@ -3668,53 +3705,51 @@
         <v>68</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" s="3" customFormat="1">
       <c r="A72" s="6">
         <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F72" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="G72" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" s="3" customFormat="1">
@@ -3722,26 +3757,28 @@
         <v>70</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="G73" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" s="3" customFormat="1">
@@ -3749,28 +3786,28 @@
         <v>71</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" s="3" customFormat="1">
@@ -3778,28 +3815,28 @@
         <v>72</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" s="3" customFormat="1">
@@ -3807,28 +3844,26 @@
         <v>73</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1">
@@ -3836,28 +3871,26 @@
         <v>74</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" s="3" customFormat="1">
@@ -3865,97 +3898,113 @@
         <v>75</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="79" s="3" customFormat="1">
       <c r="A79" s="6">
         <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F79" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G79" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" s="3" customFormat="1">
       <c r="A80" s="6">
         <v>77</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F80" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="G80" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="81" s="3" customFormat="1">
       <c r="A81" s="6">
         <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" s="3" customFormat="1">
@@ -3963,28 +4012,28 @@
         <v>79</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="1">
@@ -3992,115 +4041,97 @@
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" s="3" customFormat="1">
       <c r="A84" s="6">
         <v>81</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="D84" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
     </row>
     <row r="85" s="3" customFormat="1">
       <c r="A85" s="6">
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F85" s="7"/>
       <c r="G85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" s="3" customFormat="1">
       <c r="A86" s="6">
         <v>83</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="8" t="s">
+      <c r="G86" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="H86" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="1">
@@ -4108,28 +4139,28 @@
         <v>84</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="F87" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>220</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" s="3" customFormat="1">
@@ -4143,22 +4174,22 @@
         <v>48</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" s="3" customFormat="1">
@@ -4169,25 +4200,25 @@
         <v>222</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" s="3" customFormat="1">
@@ -4195,28 +4226,28 @@
         <v>87</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="1">
@@ -4224,28 +4255,28 @@
         <v>88</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" s="3" customFormat="1">
@@ -4253,28 +4284,28 @@
         <v>89</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" s="3" customFormat="1">
@@ -4282,28 +4313,28 @@
         <v>90</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" s="3" customFormat="1">
@@ -4311,28 +4342,28 @@
         <v>91</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" s="3" customFormat="1">
@@ -4340,28 +4371,28 @@
         <v>92</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="1">
@@ -4369,28 +4400,28 @@
         <v>93</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="1">
@@ -4398,28 +4429,28 @@
         <v>94</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" s="3" customFormat="1">
@@ -4427,28 +4458,28 @@
         <v>95</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" s="3" customFormat="1">
@@ -4456,28 +4487,28 @@
         <v>96</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1">
@@ -4485,28 +4516,28 @@
         <v>97</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="1">
@@ -4514,28 +4545,28 @@
         <v>98</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>240</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1">
@@ -4543,28 +4574,28 @@
         <v>99</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1">
@@ -4572,28 +4603,28 @@
         <v>100</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1">
@@ -4601,28 +4632,28 @@
         <v>101</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1">
@@ -4630,28 +4661,28 @@
         <v>102</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1">
@@ -4659,76 +4690,86 @@
         <v>103</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F106" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="G106" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="107" s="3" customFormat="1">
       <c r="A107" s="6">
         <v>104</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="108" s="3" customFormat="1">
       <c r="A108" s="6">
         <v>105</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1">
@@ -4736,28 +4777,28 @@
         <v>106</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1">
@@ -4765,28 +4806,28 @@
         <v>107</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1">
@@ -4794,28 +4835,28 @@
         <v>108</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1">
@@ -4823,28 +4864,28 @@
         <v>109</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="D112" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="8" t="s">
+      <c r="F112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="I112" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1">
@@ -4852,57 +4893,49 @@
         <v>110</v>
       </c>
       <c r="B113" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="F113" s="7"/>
       <c r="G113" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
     </row>
     <row r="114" s="3" customFormat="1">
       <c r="A114" s="6">
         <v>111</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>274</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F114" s="7"/>
       <c r="G114" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1">
@@ -4910,111 +4943,105 @@
         <v>112</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="116" s="3" customFormat="1">
       <c r="A116" s="6">
         <v>113</v>
       </c>
       <c r="B116" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="F116" s="7"/>
       <c r="G116" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>282</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
     </row>
     <row r="117" s="3" customFormat="1">
       <c r="A117" s="6">
         <v>114</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
     </row>
     <row r="118" s="3" customFormat="1">
       <c r="A118" s="6">
         <v>115</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>288</v>
+        <v>85</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>289</v>
+        <v>86</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>291</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1">
@@ -5022,20 +5049,22 @@
         <v>116</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F119" s="7"/>
+        <v>286</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G119" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
@@ -5045,82 +5074,80 @@
         <v>117</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="121" s="3" customFormat="1">
       <c r="A121" s="6">
         <v>118</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>298</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F121" s="7"/>
       <c r="G121" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>300</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
     </row>
     <row r="122" s="3" customFormat="1">
       <c r="A122" s="6">
         <v>119</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>274</v>
+        <v>97</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" s="3" customFormat="1">
@@ -5128,28 +5155,28 @@
         <v>120</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" s="3" customFormat="1">
@@ -5157,76 +5184,86 @@
         <v>121</v>
       </c>
       <c r="B124" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I124" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
     </row>
     <row r="125" s="3" customFormat="1">
       <c r="A125" s="6">
         <v>122</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="126" s="3" customFormat="1">
       <c r="A126" s="6">
         <v>123</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>309</v>
+        <v>111</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>310</v>
+        <v>112</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" s="3" customFormat="1">
@@ -5234,28 +5271,28 @@
         <v>124</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" s="3" customFormat="1">
@@ -5263,28 +5300,28 @@
         <v>125</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" s="3" customFormat="1">
@@ -5292,57 +5329,51 @@
         <v>126</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F129" s="7"/>
       <c r="G129" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
     </row>
     <row r="130" s="3" customFormat="1">
       <c r="A130" s="6">
         <v>127</v>
       </c>
       <c r="B130" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="I130" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" s="3" customFormat="1">
@@ -5353,19 +5384,19 @@
         <v>316</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
@@ -5375,23 +5406,29 @@
         <v>129</v>
       </c>
       <c r="B132" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="D132" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="8" t="s">
+      <c r="F132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
+      <c r="I132" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="133" s="3" customFormat="1">
       <c r="A133" s="6">
@@ -5401,22 +5438,26 @@
         <v>321</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="134" s="3" customFormat="1">
       <c r="A134" s="6">
@@ -5429,22 +5470,22 @@
         <v>323</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>324</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>325</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>326</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" s="3" customFormat="1">
@@ -5452,45 +5493,51 @@
         <v>132</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="136" s="3" customFormat="1">
       <c r="A136" s="6">
         <v>133</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F136" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G136" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
@@ -5500,28 +5547,28 @@
         <v>134</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" s="3" customFormat="1">
@@ -5529,57 +5576,51 @@
         <v>135</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F138" s="7"/>
       <c r="G138" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
     </row>
     <row r="139" s="3" customFormat="1">
       <c r="A139" s="6">
         <v>136</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" s="3" customFormat="1">
@@ -5587,49 +5628,47 @@
         <v>137</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F140" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G140" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
     </row>
     <row r="141" s="3" customFormat="1">
       <c r="A141" s="6">
         <v>138</v>
       </c>
       <c r="B141" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C141" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="D141" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
@@ -5645,14 +5684,14 @@
         <v>337</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>338</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
@@ -5665,19 +5704,19 @@
         <v>339</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>341</v>
+        <v>14</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
@@ -5687,28 +5726,28 @@
         <v>141</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>343</v>
+        <v>129</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" s="3" customFormat="1">
@@ -5716,28 +5755,28 @@
         <v>142</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>46</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" s="3" customFormat="1">
@@ -5745,20 +5784,22 @@
         <v>143</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>348</v>
+        <v>115</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F146" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="G146" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
@@ -5768,45 +5809,51 @@
         <v>144</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="148" s="3" customFormat="1">
       <c r="A148" s="6">
         <v>145</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F148" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G148" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
@@ -5816,22 +5863,22 @@
         <v>146</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>14</v>
+        <v>352</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -5841,22 +5888,20 @@
         <v>147</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F150" s="7"/>
       <c r="G150" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -5866,53 +5911,57 @@
         <v>148</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>183</v>
+        <v>357</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="152" s="3" customFormat="1">
       <c r="A152" s="6">
         <v>149</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>362</v>
+        <v>65</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>363</v>
+        <v>67</v>
       </c>
       <c r="I152" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" s="3" customFormat="1">
@@ -5920,24 +5969,22 @@
         <v>150</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>366</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H153" s="7"/>
       <c r="I153" s="7"/>
     </row>
     <row r="154" s="3" customFormat="1">
@@ -5945,24 +5992,24 @@
         <v>151</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F154" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="G154" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>369</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H154" s="7"/>
       <c r="I154" s="7"/>
     </row>
     <row r="155" s="3" customFormat="1">
@@ -5970,49 +6017,53 @@
         <v>152</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F155" s="7"/>
+        <v>366</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="G155" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="I155" s="7"/>
+        <v>367</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="156" s="3" customFormat="1">
       <c r="A156" s="6">
         <v>153</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F156" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="G156" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>375</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H156" s="7"/>
       <c r="I156" s="7"/>
     </row>
     <row r="157" s="3" customFormat="1">
@@ -6020,24 +6071,24 @@
         <v>154</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F157" s="7"/>
+        <v>372</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G157" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>378</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H157" s="7"/>
       <c r="I157" s="7"/>
     </row>
     <row r="158" s="3" customFormat="1">
@@ -6045,52 +6096,48 @@
         <v>155</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F158" s="7"/>
       <c r="G158" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="I158" s="7"/>
     </row>
     <row r="159" s="3" customFormat="1">
       <c r="A159" s="6">
         <v>156</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I159" s="7"/>
     </row>
@@ -6099,57 +6146,53 @@
         <v>157</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>52</v>
+        <v>380</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F160" s="7"/>
       <c r="G160" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="I160" s="7"/>
     </row>
     <row r="161" s="3" customFormat="1">
       <c r="A161" s="6">
         <v>158</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" s="3" customFormat="1">
@@ -6157,115 +6200,103 @@
         <v>159</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>37</v>
+        <v>387</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F162" s="7"/>
       <c r="G162" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="I162" s="7"/>
     </row>
     <row r="163" s="3" customFormat="1">
       <c r="A163" s="6">
         <v>160</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F163" s="7"/>
       <c r="G163" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>132</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="I163" s="7"/>
     </row>
     <row r="164" s="3" customFormat="1">
       <c r="A164" s="6">
         <v>161</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F164" s="7"/>
       <c r="G164" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="I164" s="7"/>
     </row>
     <row r="165" s="3" customFormat="1">
       <c r="A165" s="6">
         <v>162</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>401</v>
+        <v>34</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>402</v>
+        <v>35</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>403</v>
+        <v>75</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" s="3" customFormat="1">
@@ -6273,28 +6304,28 @@
         <v>163</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" s="3" customFormat="1">
@@ -6302,28 +6333,28 @@
         <v>164</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>411</v>
+        <v>61</v>
       </c>
       <c r="I167" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" s="3" customFormat="1">
@@ -6331,28 +6362,28 @@
         <v>165</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" s="3" customFormat="1">
@@ -6360,28 +6391,28 @@
         <v>166</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>131</v>
+        <v>408</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" s="3" customFormat="1">
@@ -6389,28 +6420,28 @@
         <v>167</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>48</v>
+        <v>410</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>49</v>
+        <v>411</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="I170" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" s="3" customFormat="1">
@@ -6418,28 +6449,28 @@
         <v>168</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="I171" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" s="3" customFormat="1">
@@ -6447,28 +6478,28 @@
         <v>169</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" s="3" customFormat="1">
@@ -6476,28 +6507,28 @@
         <v>170</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" s="3" customFormat="1">
@@ -6505,28 +6536,28 @@
         <v>171</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>433</v>
+        <v>140</v>
       </c>
       <c r="I174" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="1">
@@ -6534,28 +6565,28 @@
         <v>172</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>435</v>
+        <v>71</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" s="3" customFormat="1">
@@ -6563,28 +6594,28 @@
         <v>173</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" s="3" customFormat="1">
@@ -6592,28 +6623,28 @@
         <v>174</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" s="3" customFormat="1">
@@ -6621,28 +6652,28 @@
         <v>175</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" s="3" customFormat="1">
@@ -6650,28 +6681,28 @@
         <v>176</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I179" s="7" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" s="3" customFormat="1">
@@ -6679,28 +6710,28 @@
         <v>177</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="I180" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" s="3" customFormat="1">
@@ -6708,28 +6739,28 @@
         <v>178</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>455</v>
+        <v>223</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>456</v>
+        <v>224</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>457</v>
+        <v>225</v>
       </c>
       <c r="I181" s="7" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" s="3" customFormat="1">
@@ -6737,28 +6768,28 @@
         <v>179</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>65</v>
+        <v>449</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>67</v>
+        <v>450</v>
       </c>
       <c r="I182" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" s="3" customFormat="1">
@@ -6766,28 +6797,28 @@
         <v>180</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>150</v>
+        <v>452</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>151</v>
+        <v>453</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>152</v>
+        <v>454</v>
       </c>
       <c r="I183" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" s="3" customFormat="1">
@@ -6795,28 +6826,28 @@
         <v>181</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I184" s="7" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185" s="3" customFormat="1">
@@ -6824,28 +6855,28 @@
         <v>182</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I185" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" s="3" customFormat="1">
@@ -6853,28 +6884,28 @@
         <v>183</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>210</v>
+        <v>465</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>211</v>
+        <v>466</v>
       </c>
       <c r="I186" s="7" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187" s="3" customFormat="1">
@@ -6882,28 +6913,28 @@
         <v>184</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>471</v>
+        <v>41</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="I187" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" s="3" customFormat="1">
@@ -6911,28 +6942,28 @@
         <v>185</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>474</v>
+        <v>159</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>475</v>
+        <v>160</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>476</v>
+        <v>161</v>
       </c>
       <c r="I188" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" s="3" customFormat="1">
@@ -6940,28 +6971,28 @@
         <v>186</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I189" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" s="3" customFormat="1">
@@ -6969,28 +7000,28 @@
         <v>187</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="I190" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" s="3" customFormat="1">
@@ -6998,28 +7029,28 @@
         <v>188</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>486</v>
+        <v>218</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>487</v>
+        <v>219</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>488</v>
+        <v>220</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" s="3" customFormat="1">
@@ -7027,28 +7058,28 @@
         <v>189</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="I192" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" s="3" customFormat="1">
@@ -7056,28 +7087,28 @@
         <v>190</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="I193" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" s="3" customFormat="1">
@@ -7085,28 +7116,28 @@
         <v>191</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="I194" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" s="3" customFormat="1">
@@ -7114,28 +7145,28 @@
         <v>192</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I195" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" s="3" customFormat="1">
@@ -7143,28 +7174,28 @@
         <v>193</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="I196" s="7" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="197" s="3" customFormat="1">
@@ -7172,28 +7203,28 @@
         <v>194</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="I197" s="7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" s="3" customFormat="1">
@@ -7201,28 +7232,28 @@
         <v>195</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>513</v>
+        <v>410</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>70</v>
+        <v>503</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="I198" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" s="3" customFormat="1">
@@ -7230,28 +7261,28 @@
         <v>196</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>144</v>
+        <v>506</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>145</v>
+        <v>507</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>146</v>
+        <v>508</v>
       </c>
       <c r="I199" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200" s="3" customFormat="1">
@@ -7259,28 +7290,28 @@
         <v>197</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="I200" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="201" s="3" customFormat="1">
@@ -7288,28 +7319,28 @@
         <v>198</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>23</v>
+        <v>514</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>25</v>
+        <v>515</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>28</v>
+        <v>516</v>
       </c>
       <c r="I201" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="1">
@@ -7317,28 +7348,28 @@
         <v>199</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>31</v>
+        <v>518</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>34</v>
+        <v>519</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" s="3" customFormat="1">
@@ -7346,28 +7377,173 @@
         <v>200</v>
       </c>
       <c r="B203" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="F203" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="I203" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204" s="3" customFormat="1">
+      <c r="A204" s="6">
+        <v>201</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="205" s="3" customFormat="1">
+      <c r="A205" s="6">
+        <v>202</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I205" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" s="3" customFormat="1">
+      <c r="A206" s="6">
+        <v>203</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="207" s="3" customFormat="1">
+      <c r="A207" s="6">
+        <v>204</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I207" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" s="3" customFormat="1">
+      <c r="A208" s="6">
+        <v>205</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F208" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G203" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H203" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I203" s="7" t="s">
-        <v>46</v>
+      <c r="G208" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I208" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
